--- a/schemas/singlecell_schema_main_v0.1.xlsx
+++ b/schemas/singlecell_schema_main_v0.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28712"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nbicloud-my.sharepoint.com/personal/zef22hak_nbi_ac_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8BA7A2-4A33-4E90-A86C-C4548552A0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C47CDAD-1C2E-46E5-A6FD-3ECCB0900796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20400" activeTab="5" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
+    <workbookView xWindow="-33240" yWindow="640" windowWidth="30260" windowHeight="18900" firstSheet="2" activeTab="1" xr2:uid="{7BD8D0E6-E1F4-E04F-9790-31602B31B6DB}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="term_mapping" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$X$438</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">regex_to_formula!$A$1:$C$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$X$438</definedName>
     <definedName name="Z_D34CFE6F_6B19_C846_A6A5_7A3E0DEDB173_.wvu.FilterData" localSheetId="0" hidden="1">data!$A$1:$X$423</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="2699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6632" uniqueCount="2701">
   <si>
     <t>component_name</t>
   </si>
@@ -6245,6 +6245,9 @@
     <t>Non-reproductive</t>
   </si>
   <si>
+    <t>Custom</t>
+  </si>
+  <si>
     <t>Protoplast</t>
   </si>
   <si>
@@ -6755,285 +6758,288 @@
     <t>Belgian Congo</t>
   </si>
   <si>
+    <t>Inflorescence</t>
+  </si>
+  <si>
+    <t>Photolithoautotroph</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
     <t>Intestine</t>
   </si>
   <si>
-    <t>Photolithoautotroph</t>
-  </si>
-  <si>
-    <t>Belgium</t>
+    <t>Photolithotroph</t>
+  </si>
+  <si>
+    <t>Belize</t>
   </si>
   <si>
     <t>Kidney</t>
   </si>
   <si>
-    <t>Photolithotroph</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
     <t>Photosynthetic</t>
   </si>
   <si>
     <t>Benin</t>
   </si>
   <si>
+    <t>Phototroph</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
-    <t>Phototroph</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
+    <t>Bhutan</t>
   </si>
   <si>
     <t>Liver</t>
   </si>
   <si>
-    <t>Bhutan</t>
+    <t>Bolivia</t>
   </si>
   <si>
     <t>Lung</t>
   </si>
   <si>
-    <t>Bolivia</t>
+    <t>Borneo</t>
   </si>
   <si>
     <t>Mid Body</t>
   </si>
   <si>
-    <t>Borneo</t>
+    <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>Modular Colony</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>Mollusc Foot</t>
   </si>
   <si>
-    <t>Botswana</t>
+    <t>Bouvet Island</t>
   </si>
   <si>
     <t>Multicellular Organisms In Culture</t>
   </si>
   <si>
-    <t>Bouvet Island</t>
+    <t>Brazil</t>
   </si>
   <si>
     <t>Muscle</t>
   </si>
   <si>
-    <t>Brazil</t>
+    <t>British Guiana</t>
   </si>
   <si>
     <t>Mycelium</t>
   </si>
   <si>
-    <t>British Guiana</t>
+    <t>British Virgin Islands</t>
   </si>
   <si>
     <t>Mycorrhiza</t>
   </si>
   <si>
-    <t>British Virgin Islands</t>
+    <t>Brunei</t>
   </si>
   <si>
     <t>Ovary Animal</t>
   </si>
   <si>
-    <t>Brunei</t>
+    <t>Bulgaria</t>
   </si>
   <si>
     <t>Oviduct</t>
   </si>
   <si>
-    <t>Bulgaria</t>
+    <t>Burkina Faso</t>
   </si>
   <si>
     <t>Pancreas</t>
   </si>
   <si>
-    <t>Burkina Faso</t>
+    <t>Burma</t>
   </si>
   <si>
     <t>Petiole</t>
   </si>
   <si>
-    <t>Burma</t>
+    <t>Burundi</t>
   </si>
   <si>
     <t>Posterior Body</t>
   </si>
   <si>
-    <t>Burundi</t>
+    <t>Cambodia</t>
   </si>
   <si>
     <t>Root</t>
   </si>
   <si>
-    <t>Cambodia</t>
+    <t>Cameroon</t>
   </si>
   <si>
     <t>Scales</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Canada</t>
   </si>
   <si>
     <t>Scat</t>
   </si>
   <si>
-    <t>Canada</t>
+    <t>Cape Verde</t>
   </si>
   <si>
     <t>Seed</t>
   </si>
   <si>
-    <t>Cape Verde</t>
+    <t>Cayman Islands</t>
   </si>
   <si>
     <t>Seedling</t>
   </si>
   <si>
-    <t>Cayman Islands</t>
+    <t>Central African Republic</t>
   </si>
   <si>
     <t>Shoot</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>Chad</t>
   </si>
   <si>
     <t>Skin</t>
   </si>
   <si>
-    <t>Chad</t>
+    <t>Chile</t>
   </si>
   <si>
     <t>Sperm Seminal Fluid</t>
   </si>
   <si>
-    <t>Chile</t>
+    <t>China</t>
   </si>
   <si>
     <t>Spleen</t>
   </si>
   <si>
-    <t>China</t>
+    <t>Christmas Island</t>
   </si>
   <si>
     <t>Spore</t>
   </si>
   <si>
-    <t>Christmas Island</t>
+    <t>Clipperton Island</t>
   </si>
   <si>
     <t>Spore Bearing Structure</t>
   </si>
   <si>
-    <t>Clipperton Island</t>
+    <t>Cocos Islands</t>
   </si>
   <si>
     <t>Stem</t>
   </si>
   <si>
-    <t>Cocos Islands</t>
+    <t>Colombia</t>
   </si>
   <si>
     <t>Stipe</t>
   </si>
   <si>
-    <t>Colombia</t>
+    <t>Comoros</t>
   </si>
   <si>
     <t>Stomach</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Cook Islands</t>
   </si>
   <si>
     <t>Tentacle</t>
   </si>
   <si>
-    <t>Cook Islands</t>
+    <t>Coral Sea Islands</t>
   </si>
   <si>
     <t>Terminal Body</t>
   </si>
   <si>
-    <t>Coral Sea Islands</t>
+    <t>Costa Rica</t>
   </si>
   <si>
     <t>Testis</t>
   </si>
   <si>
-    <t>Costa Rica</t>
+    <t>Cote d‚ÄôIvoire</t>
   </si>
   <si>
     <t>Thallus Fungi</t>
   </si>
   <si>
-    <t>Cote d‚ÄôIvoire</t>
+    <t>Croatia</t>
   </si>
   <si>
     <t>Thallus Plant</t>
   </si>
   <si>
-    <t>Croatia</t>
+    <t>Cuba</t>
   </si>
   <si>
     <t>Thorax</t>
   </si>
   <si>
-    <t>Cuba</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>Unicellular Organisms In Culture</t>
   </si>
   <si>
-    <t>Curacao</t>
+    <t>Cyprus</t>
   </si>
   <si>
     <t>Whole Organism</t>
   </si>
   <si>
-    <t>Cyprus</t>
+    <t>Czech Republic</t>
   </si>
   <si>
     <t>Whole Plant</t>
   </si>
   <si>
-    <t>Czech Republic</t>
+    <t>Czechoslovakia</t>
   </si>
   <si>
     <t>Other Fungal Tissue</t>
   </si>
   <si>
-    <t>Czechoslovakia</t>
+    <t>Democratic Republic of the Congo</t>
   </si>
   <si>
     <t>Other Plant Tissue</t>
   </si>
   <si>
-    <t>Democratic Republic of the Congo</t>
+    <t>Denmark</t>
   </si>
   <si>
     <t>Other Reproductive Animal Tissue</t>
   </si>
   <si>
-    <t>Denmark</t>
+    <t>Djibouti</t>
   </si>
   <si>
     <t>Other Somatic Animal Tissue</t>
   </si>
   <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
     <t>Dominica</t>
   </si>
   <si>
@@ -7718,7 +7724,7 @@
     <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Darwin Core (DwC)]</t>
   </si>
   <si>
-    <t>A genomic approach for detecting and quantitatively analysing messenger Ribonucleic Acid (RNA) in individual cells, aimed at transmitting biodiversity-related information in alignment with the Darwin Core (DwC) standard.</t>
+    <t>For single cell RNA-seq studies aimed focused on biodiversity-related information in alignment with the Darwin Core (DwC) standard.</t>
   </si>
   <si>
     <t>sc_rnaseq</t>
@@ -7727,25 +7733,25 @@
     <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Minimum Information about any (x) Sequence (MIxS)]</t>
   </si>
   <si>
-    <t>An approach for analysing gene expression in individual cells, with a focus on the essential contextual details for the sampling and sequencing of genomic data.</t>
+    <t>For single cell RNA-seq studies with a focus on the essential contextual details for the sampling and sequencing of genomic data.</t>
   </si>
   <si>
     <t>Single-cell Ribonucleic Acid Sequencing ((scRNA-Seq) [Tree of Life (ToL)]</t>
   </si>
   <si>
-    <t>Ribonucleic Acid (RNA) sequencing to investigate the gene expression patterns of individual cells, following the Tree of Life (ToL) initiative, which applies Deoxyribonucleic acid (DNA) sequencing and cellular technologies to understand the origins and diversity of life on Earth.</t>
+    <t>For single cell RNA-seq studies, using Tree of Life metadata, aimed at understanding the origins and diversity of life on Earth.</t>
   </si>
   <si>
     <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Functional Annotation of Animal Genomes (FAANG)]</t>
   </si>
   <si>
-    <t>Ribonucleic Acid (RNA) sequencing of individual cells for functional annotation of animal genomes (FAANG) with the aim to improve understanding of animal genomics and gene functions.</t>
+    <t>For single cell RNA-seq studies using  FAANG metadata  with the aim to improve understanding of animal genomics and gene functions.</t>
   </si>
   <si>
     <t>Spatial Transcriptomics Sequencing (ST-Seq) [Darwin Core (DwC)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics sequencing to map gene expression within tissue samples, following Darwin Core (DwC) standards for transmitting biodiversity data, to help analyse cellular interactions in a spatial context.</t>
+    <t>Spatial transcriptomics sequencing to map gene expression within tissue samples, following Darwin Core (DwC) standards for biodiversity data.</t>
   </si>
   <si>
     <t>stx_seq</t>
@@ -7754,19 +7760,19 @@
     <t>Spatial Transcriptomics Sequencing (ST-Seq) [Minimum Information about any (x) Sequence (MIxS)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics sequencing, which provides a comprehensive spatial map of gene expression within tissues, adhering to the Minimum Information about any (x) Sequence (MIxS) standard, detailing the contextual information about sampling and sequencing processes.</t>
+    <t>Spatial transcriptomics sequencing, using  Minimum Information about any (x) Sequence (MIxS) standard, detailing the contextual information about sampling and sequencing processes.</t>
   </si>
   <si>
     <t>Spatial Transcriptomics Sequencing (ST-Seq) [Tree of Life (ToL)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics sequencing to analyse gene expression in tissues with respect to their spatial organisation, following the Tree of Life (ToL) standards, which leverage genomic technologies to explore life’s diversity and origins.</t>
+    <t>Spatial transcriptomics sequencing following the Tree of Life (ToL) standards, which leverage genomic technologies to explore life’s diversity and origins.</t>
   </si>
   <si>
     <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Darwin Core (DwC)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH) to study gene expression patterns within intact tissues, adhering to Darwin Core (DwC) standards for biodiversity data transmission.</t>
+    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), adhering to Darwin Core (DwC) standards for describing biodiversity related features.</t>
   </si>
   <si>
     <t>stx_fish</t>
@@ -7775,13 +7781,13 @@
     <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Minimum Information about any (x) Sequence (MIxS)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), providing insights into gene expression within tissues, following the Minimum Information about any (x) Sequence (MIxS) standard for contextual data about sequencing and sampling.</t>
+    <t>Spatial transcriptomics using Fluorescence In Situ Hybridisation (FISH), Minimum Information about any (x) Sequence (MIxS) standard for contextual data about sequencing and sampling.</t>
   </si>
   <si>
     <t>Spatial Transcriptomics Fluorescence In Situ Hybridisation (ST-FISH) [Tree of Life (ToL)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics via Fluorescence In Situ Hybridisation (FISH), providing spatially resolved gene expression data within tissues, based on the Tree of Life (ToL) initiative’s goals to explore the origins and diversity of life through advanced genomic technologies.</t>
+    <t>Spatial transcriptomics via Fluorescence In Situ Hybridisation (FISH), with metadata based on the Tree of Life (ToL) initiative’s goals to explore the origins and diversity of life through advanced genomic technologies.</t>
   </si>
   <si>
     <t>Study</t>
@@ -8293,7 +8299,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -8947,7 +8952,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9328,7 +9333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -9682,13 +9686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:X438"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="L15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -9718,7 +9722,7 @@
     <col min="24" max="24" width="20.625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1">
+    <row r="1" spans="1:24" s="3" customFormat="1" ht="15.95">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -9792,7 +9796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="15.95">
       <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
@@ -9858,7 +9862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="15.95">
       <c r="A3" s="25" t="s">
         <v>24</v>
       </c>
@@ -9916,7 +9920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" ht="15.95">
       <c r="A4" s="25" t="s">
         <v>24</v>
       </c>
@@ -9966,7 +9970,7 @@
       </c>
       <c r="X4" s="88"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="15.95">
       <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
@@ -10026,7 +10030,7 @@
       <c r="W5" s="17"/>
       <c r="X5" s="88"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="15.95">
       <c r="A6" s="25" t="s">
         <v>24</v>
       </c>
@@ -10076,7 +10080,7 @@
       <c r="W6" s="17"/>
       <c r="X6" s="88"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" ht="15.95">
       <c r="A7" s="25" t="s">
         <v>24</v>
       </c>
@@ -10128,7 +10132,7 @@
       <c r="W7" s="17"/>
       <c r="X7" s="88"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="15.95" hidden="1">
       <c r="A8" s="25" t="s">
         <v>24</v>
       </c>
@@ -10188,7 +10192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="15.95" hidden="1">
       <c r="A9" s="25" t="s">
         <v>24</v>
       </c>
@@ -10245,7 +10249,7 @@
       <c r="W9" s="17"/>
       <c r="X9" s="88"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" ht="15.95" hidden="1">
       <c r="A10" s="25" t="s">
         <v>24</v>
       </c>
@@ -10295,7 +10299,7 @@
       <c r="W10" s="44"/>
       <c r="X10" s="92"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="15.95">
       <c r="A11" s="25" t="s">
         <v>24</v>
       </c>
@@ -10347,7 +10351,7 @@
       <c r="W11" s="44"/>
       <c r="X11" s="92"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" ht="15.95">
       <c r="A12" s="25" t="s">
         <v>24</v>
       </c>
@@ -10399,7 +10403,7 @@
       <c r="W12" s="17"/>
       <c r="X12" s="88"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" ht="15.95">
       <c r="A13" s="25" t="s">
         <v>24</v>
       </c>
@@ -10421,7 +10425,7 @@
       <c r="I13" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J13" s="132" t="s">
+      <c r="J13" t="s">
         <v>97</v>
       </c>
       <c r="K13" s="5" t="s">
@@ -10451,7 +10455,7 @@
       <c r="W13" s="17"/>
       <c r="X13" s="88"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" ht="15.95" hidden="1">
       <c r="A14" s="25" t="s">
         <v>24</v>
       </c>
@@ -10495,7 +10499,7 @@
       <c r="W14" s="17"/>
       <c r="X14" s="88"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" ht="15.95">
       <c r="A15" s="25" t="s">
         <v>24</v>
       </c>
@@ -10543,7 +10547,7 @@
       <c r="W15" s="17"/>
       <c r="X15" s="88"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" ht="15.95" hidden="1">
       <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
@@ -10590,7 +10594,7 @@
       <c r="W16" s="49"/>
       <c r="X16" s="93"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="15.95">
       <c r="A17" s="4" t="s">
         <v>115</v>
       </c>
@@ -10660,7 +10664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" ht="15.95">
       <c r="A18" s="5" t="s">
         <v>115</v>
       </c>
@@ -10726,7 +10730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" ht="15.95">
       <c r="A19" s="5" t="s">
         <v>115</v>
       </c>
@@ -10794,7 +10798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" ht="15.95">
       <c r="A20" s="5" t="s">
         <v>115</v>
       </c>
@@ -10862,7 +10866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" ht="15.95">
       <c r="A21" s="5" t="s">
         <v>115</v>
       </c>
@@ -10930,7 +10934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" ht="15.95">
       <c r="A22" s="5" t="s">
         <v>115</v>
       </c>
@@ -10998,7 +11002,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" ht="15.95">
       <c r="A23" s="5" t="s">
         <v>115</v>
       </c>
@@ -11066,7 +11070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" ht="15.95">
       <c r="A24" s="5" t="s">
         <v>115</v>
       </c>
@@ -11134,7 +11138,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" ht="15.95">
       <c r="A25" s="4" t="s">
         <v>159</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" ht="15.95">
       <c r="A26" s="25" t="s">
         <v>159</v>
       </c>
@@ -11270,7 +11274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" ht="15.95">
       <c r="A27" s="25" t="s">
         <v>159</v>
       </c>
@@ -11327,7 +11331,7 @@
       <c r="W27" s="17"/>
       <c r="X27" s="88"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" ht="15.95">
       <c r="A28" s="25" t="s">
         <v>159</v>
       </c>
@@ -11384,7 +11388,7 @@
       </c>
       <c r="X28" s="88"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" ht="15.95">
       <c r="A29" s="25" t="s">
         <v>159</v>
       </c>
@@ -11437,7 +11441,7 @@
       <c r="W29" s="17"/>
       <c r="X29" s="88"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" ht="15.95">
       <c r="A30" s="25" t="s">
         <v>159</v>
       </c>
@@ -11475,9 +11479,7 @@
         <v>33</v>
       </c>
       <c r="N30" s="5"/>
-      <c r="O30" s="79" t="s">
-        <v>35</v>
-      </c>
+      <c r="O30" s="79"/>
       <c r="P30" s="12" t="s">
         <v>35</v>
       </c>
@@ -11485,18 +11487,14 @@
         <v>35</v>
       </c>
       <c r="R30" s="13"/>
-      <c r="S30" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="S30" s="18"/>
       <c r="T30" s="14" t="s">
         <v>35</v>
       </c>
       <c r="U30" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="V30" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="V30" s="16"/>
       <c r="W30" s="17" t="s">
         <v>35</v>
       </c>
@@ -11504,7 +11502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" ht="15.95">
       <c r="A31" s="25" t="s">
         <v>159</v>
       </c>
@@ -11559,7 +11557,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" ht="15.95">
       <c r="A32" s="62" t="s">
         <v>159</v>
       </c>
@@ -11609,7 +11607,7 @@
       <c r="W32" s="66"/>
       <c r="X32" s="94"/>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:24" ht="15.95">
       <c r="A33" s="25" t="s">
         <v>159</v>
       </c>
@@ -11663,7 +11661,7 @@
       </c>
       <c r="X33" s="88"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" ht="15.95">
       <c r="A34" s="25" t="s">
         <v>159</v>
       </c>
@@ -11688,7 +11686,7 @@
       <c r="J34" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="K34" s="133" t="s">
+      <c r="K34" s="132" t="s">
         <v>190</v>
       </c>
       <c r="L34" s="5" t="s">
@@ -11715,7 +11713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" ht="15.95" hidden="1">
       <c r="A35" s="25" t="s">
         <v>159</v>
       </c>
@@ -11777,7 +11775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" ht="15.95" hidden="1">
       <c r="A36" s="25" t="s">
         <v>159</v>
       </c>
@@ -11825,7 +11823,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:24" ht="15.95" hidden="1">
       <c r="A37" s="25" t="s">
         <v>159</v>
       </c>
@@ -11875,7 +11873,7 @@
       <c r="W37" s="17"/>
       <c r="X37" s="88"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:24" ht="15.95" hidden="1">
       <c r="A38" s="25" t="s">
         <v>159</v>
       </c>
@@ -11923,7 +11921,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" ht="15.95">
       <c r="A39" s="25" t="s">
         <v>159</v>
       </c>
@@ -11980,7 +11978,7 @@
       <c r="W39" s="17"/>
       <c r="X39" s="88"/>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:24" ht="15.95">
       <c r="A40" s="25" t="s">
         <v>159</v>
       </c>
@@ -12035,7 +12033,7 @@
       <c r="W40" s="17"/>
       <c r="X40" s="88"/>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:24" ht="15.95">
       <c r="A41" s="25" t="s">
         <v>159</v>
       </c>
@@ -12087,7 +12085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" ht="15.95">
       <c r="A42" s="25" t="s">
         <v>159</v>
       </c>
@@ -12144,7 +12142,7 @@
       <c r="W42" s="17"/>
       <c r="X42" s="88"/>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:24" ht="15.95">
       <c r="A43" s="25" t="s">
         <v>159</v>
       </c>
@@ -12196,7 +12194,7 @@
       <c r="W43" s="17"/>
       <c r="X43" s="88"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" ht="15.95">
       <c r="A44" s="25" t="s">
         <v>159</v>
       </c>
@@ -12251,7 +12249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:24" ht="15.95">
       <c r="A45" s="25" t="s">
         <v>159</v>
       </c>
@@ -12308,7 +12306,7 @@
       <c r="W45" s="17"/>
       <c r="X45" s="88"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" ht="15.95">
       <c r="A46" s="25" t="s">
         <v>159</v>
       </c>
@@ -12363,7 +12361,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:24" ht="15.95">
       <c r="A47" s="25" t="s">
         <v>159</v>
       </c>
@@ -12417,7 +12415,7 @@
       </c>
       <c r="X47" s="88"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" ht="15.95">
       <c r="A48" s="25" t="s">
         <v>159</v>
       </c>
@@ -12471,7 +12469,7 @@
       </c>
       <c r="X48" s="88"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" ht="15.95">
       <c r="A49" s="25" t="s">
         <v>159</v>
       </c>
@@ -12528,7 +12526,7 @@
       <c r="W49" s="17"/>
       <c r="X49" s="88"/>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" ht="15.95">
       <c r="A50" s="25" t="s">
         <v>159</v>
       </c>
@@ -12585,7 +12583,7 @@
       </c>
       <c r="X50" s="88"/>
     </row>
-    <row r="51" spans="1:24">
+    <row r="51" spans="1:24" ht="15.95">
       <c r="A51" s="25" t="s">
         <v>159</v>
       </c>
@@ -12637,7 +12635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:24">
+    <row r="52" spans="1:24" ht="15.95">
       <c r="A52" s="25" t="s">
         <v>159</v>
       </c>
@@ -12689,7 +12687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
+    <row r="53" spans="1:24" ht="15.95">
       <c r="A53" s="25" t="s">
         <v>159</v>
       </c>
@@ -12747,7 +12745,7 @@
       <c r="W53" s="17"/>
       <c r="X53" s="88"/>
     </row>
-    <row r="54" spans="1:24">
+    <row r="54" spans="1:24" ht="15.95">
       <c r="A54" s="62" t="s">
         <v>159</v>
       </c>
@@ -12797,7 +12795,7 @@
       <c r="W54" s="66"/>
       <c r="X54" s="94"/>
     </row>
-    <row r="55" spans="1:24">
+    <row r="55" spans="1:24" ht="15.95">
       <c r="A55" s="62" t="s">
         <v>159</v>
       </c>
@@ -12845,7 +12843,7 @@
       <c r="W55" s="66"/>
       <c r="X55" s="94"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" ht="15.95">
       <c r="A56" s="62" t="s">
         <v>159</v>
       </c>
@@ -12895,7 +12893,7 @@
       <c r="W56" s="66"/>
       <c r="X56" s="94"/>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" ht="15.95">
       <c r="A57" s="62" t="s">
         <v>159</v>
       </c>
@@ -12919,7 +12917,7 @@
       <c r="I57" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="J57" s="132" t="s">
+      <c r="J57" t="s">
         <v>97</v>
       </c>
       <c r="K57" s="63" t="s">
@@ -12945,7 +12943,7 @@
       <c r="W57" s="66"/>
       <c r="X57" s="94"/>
     </row>
-    <row r="58" spans="1:24">
+    <row r="58" spans="1:24" ht="15.95">
       <c r="A58" s="62" t="s">
         <v>159</v>
       </c>
@@ -12993,7 +12991,7 @@
       <c r="W58" s="66"/>
       <c r="X58" s="94"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" ht="15.95">
       <c r="A59" s="62" t="s">
         <v>159</v>
       </c>
@@ -13041,7 +13039,7 @@
       <c r="W59" s="66"/>
       <c r="X59" s="94"/>
     </row>
-    <row r="60" spans="1:24">
+    <row r="60" spans="1:24" ht="15.95">
       <c r="A60" s="62" t="s">
         <v>159</v>
       </c>
@@ -13089,7 +13087,7 @@
       <c r="W60" s="66"/>
       <c r="X60" s="94"/>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" ht="15.95">
       <c r="A61" s="62" t="s">
         <v>159</v>
       </c>
@@ -13137,7 +13135,7 @@
       <c r="W61" s="66"/>
       <c r="X61" s="94"/>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" ht="15.95">
       <c r="A62" s="62" t="s">
         <v>159</v>
       </c>
@@ -13185,7 +13183,7 @@
       <c r="W62" s="66"/>
       <c r="X62" s="94"/>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" ht="15.95">
       <c r="A63" s="62" t="s">
         <v>159</v>
       </c>
@@ -13235,7 +13233,7 @@
       <c r="W63" s="66"/>
       <c r="X63" s="94"/>
     </row>
-    <row r="64" spans="1:24">
+    <row r="64" spans="1:24" ht="15.95">
       <c r="A64" s="62" t="s">
         <v>159</v>
       </c>
@@ -13285,7 +13283,7 @@
       <c r="W64" s="66"/>
       <c r="X64" s="94"/>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" ht="15.95">
       <c r="A65" s="62" t="s">
         <v>159</v>
       </c>
@@ -13335,7 +13333,7 @@
       <c r="W65" s="66"/>
       <c r="X65" s="94"/>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" ht="15.95">
       <c r="A66" s="62" t="s">
         <v>159</v>
       </c>
@@ -13385,7 +13383,7 @@
       <c r="W66" s="66"/>
       <c r="X66" s="94"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" ht="15.95">
       <c r="A67" s="62" t="s">
         <v>159</v>
       </c>
@@ -13435,7 +13433,7 @@
       <c r="W67" s="66"/>
       <c r="X67" s="94"/>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" ht="15.95">
       <c r="A68" s="25" t="s">
         <v>159</v>
       </c>
@@ -13489,7 +13487,7 @@
       <c r="W68" s="17"/>
       <c r="X68" s="88"/>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" ht="15.95">
       <c r="A69" s="25" t="s">
         <v>159</v>
       </c>
@@ -13543,7 +13541,7 @@
       <c r="W69" s="59"/>
       <c r="X69" s="95"/>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" ht="15.95">
       <c r="A70" s="25" t="s">
         <v>159</v>
       </c>
@@ -13565,7 +13563,7 @@
       <c r="I70" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="J70" s="132" t="s">
+      <c r="J70" t="s">
         <v>97</v>
       </c>
       <c r="K70" s="5" t="s">
@@ -13597,7 +13595,7 @@
       <c r="W70" s="17"/>
       <c r="X70" s="88"/>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" ht="15.95">
       <c r="A71" s="25" t="s">
         <v>159</v>
       </c>
@@ -13651,7 +13649,7 @@
       <c r="W71" s="17"/>
       <c r="X71" s="88"/>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" ht="15.95">
       <c r="A72" s="62" t="s">
         <v>159</v>
       </c>
@@ -13701,7 +13699,7 @@
       <c r="W72" s="66"/>
       <c r="X72" s="94"/>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" ht="15.95">
       <c r="A73" s="62" t="s">
         <v>159</v>
       </c>
@@ -13751,7 +13749,7 @@
       <c r="W73" s="66"/>
       <c r="X73" s="94"/>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" ht="15.95">
       <c r="A74" s="25" t="s">
         <v>159</v>
       </c>
@@ -13803,7 +13801,7 @@
       <c r="W74" s="17"/>
       <c r="X74" s="88"/>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" ht="15.95">
       <c r="A75" s="25" t="s">
         <v>159</v>
       </c>
@@ -13857,7 +13855,7 @@
       <c r="W75" s="17"/>
       <c r="X75" s="88"/>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" ht="15.95">
       <c r="A76" s="25" t="s">
         <v>159</v>
       </c>
@@ -13911,7 +13909,7 @@
       <c r="W76" s="17"/>
       <c r="X76" s="88"/>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" ht="15.95">
       <c r="A77" s="62" t="s">
         <v>159</v>
       </c>
@@ -13959,7 +13957,7 @@
       <c r="W77" s="66"/>
       <c r="X77" s="94"/>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" ht="15.95">
       <c r="A78" s="25" t="s">
         <v>159</v>
       </c>
@@ -14011,7 +14009,7 @@
       <c r="W78" s="17"/>
       <c r="X78" s="88"/>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" ht="15.95">
       <c r="A79" s="25" t="s">
         <v>159</v>
       </c>
@@ -14065,7 +14063,7 @@
       <c r="W79" s="17"/>
       <c r="X79" s="88"/>
     </row>
-    <row r="80" spans="1:24">
+    <row r="80" spans="1:24" ht="15.95">
       <c r="A80" s="25" t="s">
         <v>159</v>
       </c>
@@ -14119,7 +14117,7 @@
       <c r="W80" s="17"/>
       <c r="X80" s="88"/>
     </row>
-    <row r="81" spans="1:24">
+    <row r="81" spans="1:24" ht="15.95" hidden="1">
       <c r="A81" s="62" t="s">
         <v>159</v>
       </c>
@@ -14165,7 +14163,7 @@
       <c r="W81" s="66"/>
       <c r="X81" s="94"/>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" ht="15.95" hidden="1">
       <c r="A82" s="25" t="s">
         <v>159</v>
       </c>
@@ -14215,7 +14213,7 @@
       <c r="W82" s="17"/>
       <c r="X82" s="88"/>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" ht="15.95">
       <c r="A83" s="62" t="s">
         <v>159</v>
       </c>
@@ -14263,7 +14261,7 @@
       <c r="W83" s="66"/>
       <c r="X83" s="94"/>
     </row>
-    <row r="84" spans="1:24">
+    <row r="84" spans="1:24" ht="15.95">
       <c r="A84" s="62" t="s">
         <v>159</v>
       </c>
@@ -14313,7 +14311,7 @@
       <c r="W84" s="66"/>
       <c r="X84" s="94"/>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" ht="15.95">
       <c r="A85" s="62" t="s">
         <v>159</v>
       </c>
@@ -14363,7 +14361,7 @@
       <c r="W85" s="66"/>
       <c r="X85" s="94"/>
     </row>
-    <row r="86" spans="1:24">
+    <row r="86" spans="1:24" ht="15.95">
       <c r="A86" s="62" t="s">
         <v>159</v>
       </c>
@@ -14413,7 +14411,7 @@
       <c r="W86" s="66"/>
       <c r="X86" s="94"/>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" ht="15.95">
       <c r="A87" s="62" t="s">
         <v>159</v>
       </c>
@@ -14463,7 +14461,7 @@
       <c r="W87" s="66"/>
       <c r="X87" s="94"/>
     </row>
-    <row r="88" spans="1:24">
+    <row r="88" spans="1:24" ht="15.95">
       <c r="A88" s="62" t="s">
         <v>159</v>
       </c>
@@ -14513,7 +14511,7 @@
       <c r="W88" s="66"/>
       <c r="X88" s="94"/>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" ht="15.95">
       <c r="A89" s="62" t="s">
         <v>159</v>
       </c>
@@ -14561,7 +14559,7 @@
       <c r="W89" s="66"/>
       <c r="X89" s="94"/>
     </row>
-    <row r="90" spans="1:24">
+    <row r="90" spans="1:24" ht="15.95" hidden="1">
       <c r="A90" s="62" t="s">
         <v>159</v>
       </c>
@@ -14607,7 +14605,7 @@
       <c r="W90" s="66"/>
       <c r="X90" s="94"/>
     </row>
-    <row r="91" spans="1:24">
+    <row r="91" spans="1:24" ht="15.95">
       <c r="A91" s="62" t="s">
         <v>159</v>
       </c>
@@ -14655,7 +14653,7 @@
       <c r="W91" s="66"/>
       <c r="X91" s="94"/>
     </row>
-    <row r="92" spans="1:24">
+    <row r="92" spans="1:24" ht="15.95">
       <c r="A92" s="62" t="s">
         <v>159</v>
       </c>
@@ -14703,7 +14701,7 @@
       <c r="W92" s="66"/>
       <c r="X92" s="94"/>
     </row>
-    <row r="93" spans="1:24">
+    <row r="93" spans="1:24" ht="15.95">
       <c r="A93" s="62" t="s">
         <v>159</v>
       </c>
@@ -14753,7 +14751,7 @@
       <c r="W93" s="66"/>
       <c r="X93" s="94"/>
     </row>
-    <row r="94" spans="1:24">
+    <row r="94" spans="1:24" ht="15.95" hidden="1">
       <c r="A94" s="62" t="s">
         <v>159</v>
       </c>
@@ -14799,7 +14797,7 @@
       <c r="W94" s="66"/>
       <c r="X94" s="94"/>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" ht="15.95">
       <c r="A95" s="62" t="s">
         <v>159</v>
       </c>
@@ -14847,7 +14845,7 @@
       <c r="W95" s="66"/>
       <c r="X95" s="94"/>
     </row>
-    <row r="96" spans="1:24">
+    <row r="96" spans="1:24" ht="15.95">
       <c r="A96" s="62" t="s">
         <v>159</v>
       </c>
@@ -14895,7 +14893,7 @@
       <c r="W96" s="66"/>
       <c r="X96" s="94"/>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" ht="15.95">
       <c r="A97" s="62" t="s">
         <v>159</v>
       </c>
@@ -14943,7 +14941,7 @@
       <c r="W97" s="66"/>
       <c r="X97" s="94"/>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" ht="15.95">
       <c r="A98" s="62" t="s">
         <v>159</v>
       </c>
@@ -14991,7 +14989,7 @@
       <c r="W98" s="66"/>
       <c r="X98" s="94"/>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" ht="15.95">
       <c r="A99" s="62" t="s">
         <v>159</v>
       </c>
@@ -15039,7 +15037,7 @@
       <c r="W99" s="66"/>
       <c r="X99" s="94"/>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" ht="15.95">
       <c r="A100" s="62" t="s">
         <v>159</v>
       </c>
@@ -15089,7 +15087,7 @@
       <c r="W100" s="66"/>
       <c r="X100" s="94"/>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" ht="15.95">
       <c r="A101" s="62" t="s">
         <v>159</v>
       </c>
@@ -15139,7 +15137,7 @@
       <c r="W101" s="66"/>
       <c r="X101" s="94"/>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" ht="15.95">
       <c r="A102" s="62" t="s">
         <v>159</v>
       </c>
@@ -15189,7 +15187,7 @@
       <c r="W102" s="66"/>
       <c r="X102" s="94"/>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" ht="15.95">
       <c r="A103" s="62" t="s">
         <v>159</v>
       </c>
@@ -15239,7 +15237,7 @@
       <c r="W103" s="66"/>
       <c r="X103" s="94"/>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" ht="15.95">
       <c r="A104" s="62" t="s">
         <v>159</v>
       </c>
@@ -15287,7 +15285,7 @@
       <c r="W104" s="66"/>
       <c r="X104" s="94"/>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" ht="15.95">
       <c r="A105" s="62" t="s">
         <v>159</v>
       </c>
@@ -15335,7 +15333,7 @@
       <c r="W105" s="66"/>
       <c r="X105" s="94"/>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" ht="15.95">
       <c r="A106" s="62" t="s">
         <v>159</v>
       </c>
@@ -15383,7 +15381,7 @@
       <c r="W106" s="66"/>
       <c r="X106" s="94"/>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" ht="15.95" hidden="1">
       <c r="A107" s="62" t="s">
         <v>159</v>
       </c>
@@ -15429,7 +15427,7 @@
       <c r="W107" s="66"/>
       <c r="X107" s="94"/>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" ht="15.95">
       <c r="A108" s="62" t="s">
         <v>159</v>
       </c>
@@ -15477,7 +15475,7 @@
       <c r="W108" s="66"/>
       <c r="X108" s="94"/>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" ht="15.95">
       <c r="A109" s="62" t="s">
         <v>159</v>
       </c>
@@ -15527,7 +15525,7 @@
       <c r="W109" s="66"/>
       <c r="X109" s="94"/>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" ht="15.95">
       <c r="A110" s="62" t="s">
         <v>159</v>
       </c>
@@ -15575,7 +15573,7 @@
       <c r="W110" s="66"/>
       <c r="X110" s="94"/>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" ht="15.95">
       <c r="A111" s="62" t="s">
         <v>159</v>
       </c>
@@ -15623,7 +15621,7 @@
       <c r="W111" s="66"/>
       <c r="X111" s="94"/>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" ht="15.95">
       <c r="A112" s="62" t="s">
         <v>159</v>
       </c>
@@ -15671,7 +15669,7 @@
       <c r="W112" s="66"/>
       <c r="X112" s="94"/>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" ht="15.95">
       <c r="A113" s="25" t="s">
         <v>159</v>
       </c>
@@ -15725,7 +15723,7 @@
       </c>
       <c r="X113" s="88"/>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" ht="15.95">
       <c r="A114" s="62" t="s">
         <v>159</v>
       </c>
@@ -15775,7 +15773,7 @@
       <c r="W114" s="66"/>
       <c r="X114" s="94"/>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" ht="15.95">
       <c r="A115" s="62" t="s">
         <v>159</v>
       </c>
@@ -15825,7 +15823,7 @@
       <c r="W115" s="66"/>
       <c r="X115" s="94"/>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" ht="15.95">
       <c r="A116" s="62" t="s">
         <v>159</v>
       </c>
@@ -15875,7 +15873,7 @@
       <c r="W116" s="66"/>
       <c r="X116" s="94"/>
     </row>
-    <row r="117" spans="1:24">
+    <row r="117" spans="1:24" ht="15.95">
       <c r="A117" s="62" t="s">
         <v>159</v>
       </c>
@@ -15923,7 +15921,7 @@
       <c r="W117" s="66"/>
       <c r="X117" s="94"/>
     </row>
-    <row r="118" spans="1:24">
+    <row r="118" spans="1:24" ht="15.95">
       <c r="A118" s="62" t="s">
         <v>159</v>
       </c>
@@ -15971,7 +15969,7 @@
       <c r="W118" s="66"/>
       <c r="X118" s="94"/>
     </row>
-    <row r="119" spans="1:24">
+    <row r="119" spans="1:24" ht="15.95">
       <c r="A119" s="62" t="s">
         <v>159</v>
       </c>
@@ -16019,7 +16017,7 @@
       <c r="W119" s="66"/>
       <c r="X119" s="94"/>
     </row>
-    <row r="120" spans="1:24">
+    <row r="120" spans="1:24" ht="15.95">
       <c r="A120" s="62" t="s">
         <v>159</v>
       </c>
@@ -16069,7 +16067,7 @@
       <c r="W120" s="66"/>
       <c r="X120" s="94"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" ht="15.95">
       <c r="A121" s="62" t="s">
         <v>159</v>
       </c>
@@ -16117,7 +16115,7 @@
       <c r="W121" s="66"/>
       <c r="X121" s="94"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" ht="15.95">
       <c r="A122" s="62" t="s">
         <v>159</v>
       </c>
@@ -16141,7 +16139,7 @@
       <c r="I122" s="65" t="s">
         <v>631</v>
       </c>
-      <c r="J122" s="132" t="s">
+      <c r="J122" t="s">
         <v>97</v>
       </c>
       <c r="K122" s="63" t="s">
@@ -16167,7 +16165,7 @@
       <c r="W122" s="66"/>
       <c r="X122" s="94"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" ht="15.95">
       <c r="A123" s="62" t="s">
         <v>159</v>
       </c>
@@ -16217,7 +16215,7 @@
       <c r="W123" s="66"/>
       <c r="X123" s="94"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" ht="15.95">
       <c r="A124" s="62" t="s">
         <v>159</v>
       </c>
@@ -16265,7 +16263,7 @@
       <c r="W124" s="66"/>
       <c r="X124" s="94"/>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" ht="15.95">
       <c r="A125" s="62" t="s">
         <v>159</v>
       </c>
@@ -16315,7 +16313,7 @@
       <c r="W125" s="66"/>
       <c r="X125" s="94"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" ht="15.95">
       <c r="A126" s="25" t="s">
         <v>159</v>
       </c>
@@ -16372,7 +16370,7 @@
       <c r="W126" s="59"/>
       <c r="X126" s="95"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" ht="15.95">
       <c r="A127" s="25" t="s">
         <v>159</v>
       </c>
@@ -16427,7 +16425,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" ht="15.95">
       <c r="A128" s="25" t="s">
         <v>159</v>
       </c>
@@ -16449,7 +16447,7 @@
       <c r="I128" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="J128" s="132" t="s">
+      <c r="J128" t="s">
         <v>97</v>
       </c>
       <c r="K128" s="5" t="s">
@@ -16481,7 +16479,7 @@
       <c r="W128" s="17"/>
       <c r="X128" s="88"/>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" ht="15.95">
       <c r="A129" s="25" t="s">
         <v>159</v>
       </c>
@@ -16535,7 +16533,7 @@
       <c r="W129" s="17"/>
       <c r="X129" s="88"/>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" ht="15.95">
       <c r="A130" s="25" t="s">
         <v>159</v>
       </c>
@@ -16589,7 +16587,7 @@
       <c r="W130" s="17"/>
       <c r="X130" s="88"/>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" ht="15.95">
       <c r="A131" s="25" t="s">
         <v>159</v>
       </c>
@@ -16643,7 +16641,7 @@
       <c r="W131" s="17"/>
       <c r="X131" s="88"/>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" ht="15.95">
       <c r="A132" s="25" t="s">
         <v>159</v>
       </c>
@@ -16697,7 +16695,7 @@
       <c r="W132" s="17"/>
       <c r="X132" s="88"/>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" ht="15.95">
       <c r="A133" s="62" t="s">
         <v>159</v>
       </c>
@@ -16747,7 +16745,7 @@
       <c r="W133" s="66"/>
       <c r="X133" s="94"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" ht="15.95">
       <c r="A134" s="62" t="s">
         <v>159</v>
       </c>
@@ -16797,7 +16795,7 @@
       <c r="W134" s="66"/>
       <c r="X134" s="94"/>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" ht="15.95">
       <c r="A135" s="62" t="s">
         <v>159</v>
       </c>
@@ -16847,7 +16845,7 @@
       <c r="W135" s="66"/>
       <c r="X135" s="94"/>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" ht="15.95">
       <c r="A136" s="62" t="s">
         <v>159</v>
       </c>
@@ -16897,7 +16895,7 @@
       <c r="W136" s="66"/>
       <c r="X136" s="94"/>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" ht="15.95">
       <c r="A137" s="62" t="s">
         <v>159</v>
       </c>
@@ -16947,7 +16945,7 @@
       <c r="W137" s="66"/>
       <c r="X137" s="94"/>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" ht="15.95">
       <c r="A138" s="62" t="s">
         <v>159</v>
       </c>
@@ -16971,7 +16969,7 @@
       <c r="I138" s="65" t="s">
         <v>705</v>
       </c>
-      <c r="J138" s="132" t="s">
+      <c r="J138" t="s">
         <v>97</v>
       </c>
       <c r="K138" s="63" t="s">
@@ -16997,7 +16995,7 @@
       <c r="W138" s="66"/>
       <c r="X138" s="94"/>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" ht="15.95">
       <c r="A139" s="62" t="s">
         <v>159</v>
       </c>
@@ -17045,7 +17043,7 @@
       <c r="W139" s="66"/>
       <c r="X139" s="94"/>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" ht="15.95">
       <c r="A140" s="25" t="s">
         <v>159</v>
       </c>
@@ -17097,7 +17095,7 @@
       <c r="W140" s="17"/>
       <c r="X140" s="88"/>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" ht="15.95">
       <c r="A141" s="25" t="s">
         <v>159</v>
       </c>
@@ -17149,7 +17147,7 @@
       <c r="W141" s="17"/>
       <c r="X141" s="88"/>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" ht="15.95">
       <c r="A142" s="25" t="s">
         <v>159</v>
       </c>
@@ -17171,7 +17169,7 @@
       <c r="I142" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="J142" s="132" t="s">
+      <c r="J142" t="s">
         <v>97</v>
       </c>
       <c r="K142" s="5" t="s">
@@ -17203,7 +17201,7 @@
       <c r="W142" s="17"/>
       <c r="X142" s="88"/>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" ht="15.95">
       <c r="A143" s="25" t="s">
         <v>159</v>
       </c>
@@ -17255,7 +17253,7 @@
       <c r="W143" s="17"/>
       <c r="X143" s="88"/>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" ht="15.95">
       <c r="A144" s="62" t="s">
         <v>159</v>
       </c>
@@ -17303,7 +17301,7 @@
       <c r="W144" s="66"/>
       <c r="X144" s="94"/>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" ht="15.95">
       <c r="A145" s="25" t="s">
         <v>159</v>
       </c>
@@ -17355,7 +17353,7 @@
       <c r="W145" s="17"/>
       <c r="X145" s="88"/>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" ht="15.95">
       <c r="A146" s="25" t="s">
         <v>159</v>
       </c>
@@ -17410,7 +17408,7 @@
       <c r="W146" s="17"/>
       <c r="X146" s="88"/>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" ht="15.95">
       <c r="A147" s="25" t="s">
         <v>159</v>
       </c>
@@ -17465,7 +17463,7 @@
       <c r="W147" s="17"/>
       <c r="X147" s="88"/>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" ht="15.95">
       <c r="A148" s="25" t="s">
         <v>159</v>
       </c>
@@ -17519,7 +17517,7 @@
       <c r="W148" s="59"/>
       <c r="X148" s="95"/>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" ht="15.95">
       <c r="A149" s="25" t="s">
         <v>159</v>
       </c>
@@ -17574,7 +17572,7 @@
       <c r="W149" s="17"/>
       <c r="X149" s="88"/>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" ht="15.95">
       <c r="A150" s="25" t="s">
         <v>159</v>
       </c>
@@ -17629,7 +17627,7 @@
       <c r="W150" s="17"/>
       <c r="X150" s="88"/>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" ht="15.95">
       <c r="A151" s="62" t="s">
         <v>159</v>
       </c>
@@ -17677,7 +17675,7 @@
       <c r="W151" s="66"/>
       <c r="X151" s="94"/>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:24" ht="15.95">
       <c r="A152" s="62" t="s">
         <v>159</v>
       </c>
@@ -17725,7 +17723,7 @@
       <c r="W152" s="66"/>
       <c r="X152" s="94"/>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" ht="15.95">
       <c r="A153" s="62" t="s">
         <v>159</v>
       </c>
@@ -17775,7 +17773,7 @@
       <c r="W153" s="66"/>
       <c r="X153" s="94"/>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" ht="15.95">
       <c r="A154" s="62" t="s">
         <v>159</v>
       </c>
@@ -17823,7 +17821,7 @@
       <c r="W154" s="66"/>
       <c r="X154" s="94"/>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" ht="15.95">
       <c r="A155" s="62" t="s">
         <v>159</v>
       </c>
@@ -17871,7 +17869,7 @@
       <c r="W155" s="66"/>
       <c r="X155" s="94"/>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" ht="15.95">
       <c r="A156" s="62" t="s">
         <v>159</v>
       </c>
@@ -17919,7 +17917,7 @@
       <c r="W156" s="66"/>
       <c r="X156" s="94"/>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" ht="15.95" hidden="1">
       <c r="A157" s="62" t="s">
         <v>159</v>
       </c>
@@ -17965,7 +17963,7 @@
       <c r="W157" s="66"/>
       <c r="X157" s="94"/>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" ht="15.95" hidden="1">
       <c r="A158" s="62" t="s">
         <v>159</v>
       </c>
@@ -18011,7 +18009,7 @@
       <c r="W158" s="66"/>
       <c r="X158" s="94"/>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" ht="15.95">
       <c r="A159" s="62" t="s">
         <v>159</v>
       </c>
@@ -18061,7 +18059,7 @@
       <c r="W159" s="66"/>
       <c r="X159" s="94"/>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" ht="15.95">
       <c r="A160" s="62" t="s">
         <v>159</v>
       </c>
@@ -18109,7 +18107,7 @@
       <c r="W160" s="66"/>
       <c r="X160" s="94"/>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:24" ht="15.95">
       <c r="A161" s="25" t="s">
         <v>159</v>
       </c>
@@ -18163,7 +18161,7 @@
       <c r="W161" s="17"/>
       <c r="X161" s="88"/>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:24" ht="15.95">
       <c r="A162" s="25" t="s">
         <v>159</v>
       </c>
@@ -18217,7 +18215,7 @@
       <c r="W162" s="59"/>
       <c r="X162" s="95"/>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:24" ht="15.95">
       <c r="A163" s="25" t="s">
         <v>159</v>
       </c>
@@ -18271,7 +18269,7 @@
       <c r="W163" s="17"/>
       <c r="X163" s="88"/>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:24" ht="15.95">
       <c r="A164" s="62" t="s">
         <v>159</v>
       </c>
@@ -18321,7 +18319,7 @@
       <c r="W164" s="66"/>
       <c r="X164" s="94"/>
     </row>
-    <row r="165" spans="1:24">
+    <row r="165" spans="1:24" ht="15.95">
       <c r="A165" s="62" t="s">
         <v>159</v>
       </c>
@@ -18369,7 +18367,7 @@
       <c r="W165" s="66"/>
       <c r="X165" s="94"/>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:24" ht="15.95">
       <c r="A166" s="62" t="s">
         <v>159</v>
       </c>
@@ -18417,7 +18415,7 @@
       <c r="W166" s="66"/>
       <c r="X166" s="94"/>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:24" ht="15.95">
       <c r="A167" s="62" t="s">
         <v>159</v>
       </c>
@@ -18441,7 +18439,7 @@
       <c r="I167" s="65" t="s">
         <v>850</v>
       </c>
-      <c r="J167" s="132" t="s">
+      <c r="J167" t="s">
         <v>97</v>
       </c>
       <c r="K167" s="63" t="s">
@@ -18467,7 +18465,7 @@
       <c r="W167" s="66"/>
       <c r="X167" s="94"/>
     </row>
-    <row r="168" spans="1:24">
+    <row r="168" spans="1:24" ht="15.95">
       <c r="A168" s="62" t="s">
         <v>159</v>
       </c>
@@ -18515,7 +18513,7 @@
       <c r="W168" s="66"/>
       <c r="X168" s="94"/>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:24" ht="15.95">
       <c r="A169" s="62" t="s">
         <v>159</v>
       </c>
@@ -18563,7 +18561,7 @@
       <c r="W169" s="66"/>
       <c r="X169" s="94"/>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:24" ht="15.95">
       <c r="A170" s="62" t="s">
         <v>159</v>
       </c>
@@ -18611,7 +18609,7 @@
       <c r="W170" s="66"/>
       <c r="X170" s="94"/>
     </row>
-    <row r="171" spans="1:24">
+    <row r="171" spans="1:24" ht="15.95">
       <c r="A171" s="62" t="s">
         <v>159</v>
       </c>
@@ -18659,7 +18657,7 @@
       <c r="W171" s="66"/>
       <c r="X171" s="94"/>
     </row>
-    <row r="172" spans="1:24">
+    <row r="172" spans="1:24" ht="15.95">
       <c r="A172" s="62" t="s">
         <v>159</v>
       </c>
@@ -18707,7 +18705,7 @@
       <c r="W172" s="66"/>
       <c r="X172" s="94"/>
     </row>
-    <row r="173" spans="1:24">
+    <row r="173" spans="1:24" ht="15.95">
       <c r="A173" s="62" t="s">
         <v>159</v>
       </c>
@@ -18755,7 +18753,7 @@
       <c r="W173" s="66"/>
       <c r="X173" s="94"/>
     </row>
-    <row r="174" spans="1:24">
+    <row r="174" spans="1:24" ht="15.95" hidden="1">
       <c r="A174" s="62" t="s">
         <v>159</v>
       </c>
@@ -18801,7 +18799,7 @@
       <c r="W174" s="66"/>
       <c r="X174" s="94"/>
     </row>
-    <row r="175" spans="1:24">
+    <row r="175" spans="1:24" ht="15.95">
       <c r="A175" s="25" t="s">
         <v>159</v>
       </c>
@@ -18853,7 +18851,7 @@
       <c r="W175" s="17"/>
       <c r="X175" s="88"/>
     </row>
-    <row r="176" spans="1:24">
+    <row r="176" spans="1:24" ht="15.95">
       <c r="A176" s="25" t="s">
         <v>159</v>
       </c>
@@ -18905,7 +18903,7 @@
       <c r="W176" s="17"/>
       <c r="X176" s="88"/>
     </row>
-    <row r="177" spans="1:24">
+    <row r="177" spans="1:24" ht="15.95">
       <c r="A177" s="25" t="s">
         <v>159</v>
       </c>
@@ -18957,7 +18955,7 @@
       <c r="W177" s="17"/>
       <c r="X177" s="88"/>
     </row>
-    <row r="178" spans="1:24">
+    <row r="178" spans="1:24" ht="15.95">
       <c r="A178" s="25" t="s">
         <v>159</v>
       </c>
@@ -19009,7 +19007,7 @@
       <c r="W178" s="17"/>
       <c r="X178" s="88"/>
     </row>
-    <row r="179" spans="1:24">
+    <row r="179" spans="1:24" ht="15.95">
       <c r="A179" s="62" t="s">
         <v>159</v>
       </c>
@@ -19057,7 +19055,7 @@
       <c r="W179" s="66"/>
       <c r="X179" s="94"/>
     </row>
-    <row r="180" spans="1:24">
+    <row r="180" spans="1:24" ht="15.95">
       <c r="A180" s="62" t="s">
         <v>159</v>
       </c>
@@ -19105,7 +19103,7 @@
       <c r="W180" s="66"/>
       <c r="X180" s="94"/>
     </row>
-    <row r="181" spans="1:24">
+    <row r="181" spans="1:24" ht="15.95">
       <c r="A181" s="62" t="s">
         <v>159</v>
       </c>
@@ -19153,7 +19151,7 @@
       <c r="W181" s="66"/>
       <c r="X181" s="94"/>
     </row>
-    <row r="182" spans="1:24">
+    <row r="182" spans="1:24" ht="15.95">
       <c r="A182" s="62" t="s">
         <v>159</v>
       </c>
@@ -19201,7 +19199,7 @@
       <c r="W182" s="66"/>
       <c r="X182" s="94"/>
     </row>
-    <row r="183" spans="1:24">
+    <row r="183" spans="1:24" ht="15.95">
       <c r="A183" s="62" t="s">
         <v>159</v>
       </c>
@@ -19249,7 +19247,7 @@
       <c r="W183" s="66"/>
       <c r="X183" s="94"/>
     </row>
-    <row r="184" spans="1:24">
+    <row r="184" spans="1:24" ht="15.95">
       <c r="A184" s="62" t="s">
         <v>159</v>
       </c>
@@ -19297,7 +19295,7 @@
       <c r="W184" s="66"/>
       <c r="X184" s="94"/>
     </row>
-    <row r="185" spans="1:24">
+    <row r="185" spans="1:24" ht="15.95">
       <c r="A185" s="62" t="s">
         <v>159</v>
       </c>
@@ -19345,7 +19343,7 @@
       <c r="W185" s="66"/>
       <c r="X185" s="94"/>
     </row>
-    <row r="186" spans="1:24">
+    <row r="186" spans="1:24" ht="15.95">
       <c r="A186" s="62" t="s">
         <v>159</v>
       </c>
@@ -19393,7 +19391,7 @@
       <c r="W186" s="66"/>
       <c r="X186" s="94"/>
     </row>
-    <row r="187" spans="1:24">
+    <row r="187" spans="1:24" ht="15.95">
       <c r="A187" s="62" t="s">
         <v>159</v>
       </c>
@@ -19441,7 +19439,7 @@
       <c r="W187" s="66"/>
       <c r="X187" s="94"/>
     </row>
-    <row r="188" spans="1:24">
+    <row r="188" spans="1:24" ht="15.95">
       <c r="A188" s="62" t="s">
         <v>159</v>
       </c>
@@ -19489,7 +19487,7 @@
       <c r="W188" s="66"/>
       <c r="X188" s="94"/>
     </row>
-    <row r="189" spans="1:24">
+    <row r="189" spans="1:24" ht="15.95">
       <c r="A189" s="25" t="s">
         <v>159</v>
       </c>
@@ -19541,7 +19539,7 @@
       <c r="W189" s="17"/>
       <c r="X189" s="88"/>
     </row>
-    <row r="190" spans="1:24">
+    <row r="190" spans="1:24" ht="15.95">
       <c r="A190" s="62" t="s">
         <v>159</v>
       </c>
@@ -19589,7 +19587,7 @@
       <c r="W190" s="66"/>
       <c r="X190" s="94"/>
     </row>
-    <row r="191" spans="1:24">
+    <row r="191" spans="1:24" ht="15.95">
       <c r="A191" s="62" t="s">
         <v>159</v>
       </c>
@@ -19637,7 +19635,7 @@
       <c r="W191" s="66"/>
       <c r="X191" s="94"/>
     </row>
-    <row r="192" spans="1:24">
+    <row r="192" spans="1:24" ht="15.95">
       <c r="A192" s="25" t="s">
         <v>159</v>
       </c>
@@ -19689,7 +19687,7 @@
       <c r="W192" s="17"/>
       <c r="X192" s="88"/>
     </row>
-    <row r="193" spans="1:24">
+    <row r="193" spans="1:24" ht="15.95">
       <c r="A193" s="25" t="s">
         <v>159</v>
       </c>
@@ -19711,7 +19709,7 @@
       <c r="I193" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="J193" s="132" t="s">
+      <c r="J193" t="s">
         <v>97</v>
       </c>
       <c r="K193" s="5" t="s">
@@ -19743,7 +19741,7 @@
       <c r="W193" s="17"/>
       <c r="X193" s="88"/>
     </row>
-    <row r="194" spans="1:24">
+    <row r="194" spans="1:24" ht="15.95">
       <c r="A194" s="62" t="s">
         <v>159</v>
       </c>
@@ -19791,7 +19789,7 @@
       <c r="W194" s="66"/>
       <c r="X194" s="94"/>
     </row>
-    <row r="195" spans="1:24">
+    <row r="195" spans="1:24" ht="15.95">
       <c r="A195" s="62" t="s">
         <v>159</v>
       </c>
@@ -19839,7 +19837,7 @@
       <c r="W195" s="66"/>
       <c r="X195" s="94"/>
     </row>
-    <row r="196" spans="1:24">
+    <row r="196" spans="1:24" ht="15.95">
       <c r="A196" s="62" t="s">
         <v>159</v>
       </c>
@@ -19887,7 +19885,7 @@
       <c r="W196" s="66"/>
       <c r="X196" s="94"/>
     </row>
-    <row r="197" spans="1:24">
+    <row r="197" spans="1:24" ht="15.95">
       <c r="A197" s="62" t="s">
         <v>159</v>
       </c>
@@ -19937,7 +19935,7 @@
       <c r="W197" s="66"/>
       <c r="X197" s="94"/>
     </row>
-    <row r="198" spans="1:24">
+    <row r="198" spans="1:24" ht="15.95" hidden="1">
       <c r="A198" s="62" t="s">
         <v>159</v>
       </c>
@@ -19983,7 +19981,7 @@
       <c r="W198" s="66"/>
       <c r="X198" s="94"/>
     </row>
-    <row r="199" spans="1:24">
+    <row r="199" spans="1:24" ht="15.95">
       <c r="A199" s="62" t="s">
         <v>159</v>
       </c>
@@ -20007,7 +20005,7 @@
       <c r="I199" s="65" t="s">
         <v>1009</v>
       </c>
-      <c r="J199" s="132" t="s">
+      <c r="J199" t="s">
         <v>97</v>
       </c>
       <c r="K199" s="63" t="s">
@@ -20033,7 +20031,7 @@
       <c r="W199" s="66"/>
       <c r="X199" s="94"/>
     </row>
-    <row r="200" spans="1:24">
+    <row r="200" spans="1:24" ht="15.95">
       <c r="A200" s="62" t="s">
         <v>159</v>
       </c>
@@ -20081,7 +20079,7 @@
       <c r="W200" s="66"/>
       <c r="X200" s="94"/>
     </row>
-    <row r="201" spans="1:24">
+    <row r="201" spans="1:24" ht="15.95" hidden="1">
       <c r="A201" s="25" t="s">
         <v>159</v>
       </c>
@@ -20131,7 +20129,7 @@
       <c r="W201" s="17"/>
       <c r="X201" s="88"/>
     </row>
-    <row r="202" spans="1:24">
+    <row r="202" spans="1:24" ht="15.95">
       <c r="A202" s="62" t="s">
         <v>159</v>
       </c>
@@ -20179,7 +20177,7 @@
       <c r="W202" s="66"/>
       <c r="X202" s="94"/>
     </row>
-    <row r="203" spans="1:24">
+    <row r="203" spans="1:24" ht="15.95">
       <c r="A203" s="62" t="s">
         <v>159</v>
       </c>
@@ -20227,7 +20225,7 @@
       <c r="W203" s="66"/>
       <c r="X203" s="94"/>
     </row>
-    <row r="204" spans="1:24">
+    <row r="204" spans="1:24" ht="15.95">
       <c r="A204" s="62" t="s">
         <v>159</v>
       </c>
@@ -20275,7 +20273,7 @@
       <c r="W204" s="66"/>
       <c r="X204" s="94"/>
     </row>
-    <row r="205" spans="1:24">
+    <row r="205" spans="1:24" ht="15.95">
       <c r="A205" s="25" t="s">
         <v>159</v>
       </c>
@@ -20327,7 +20325,7 @@
       <c r="W205" s="17"/>
       <c r="X205" s="88"/>
     </row>
-    <row r="206" spans="1:24">
+    <row r="206" spans="1:24" ht="15.95">
       <c r="A206" s="25" t="s">
         <v>159</v>
       </c>
@@ -20381,7 +20379,7 @@
       <c r="W206" s="17"/>
       <c r="X206" s="88"/>
     </row>
-    <row r="207" spans="1:24">
+    <row r="207" spans="1:24" ht="15.95">
       <c r="A207" s="25" t="s">
         <v>159</v>
       </c>
@@ -20433,7 +20431,7 @@
       <c r="W207" s="17"/>
       <c r="X207" s="88"/>
     </row>
-    <row r="208" spans="1:24">
+    <row r="208" spans="1:24" ht="15.95">
       <c r="A208" s="25" t="s">
         <v>159</v>
       </c>
@@ -20485,7 +20483,7 @@
       <c r="W208" s="17"/>
       <c r="X208" s="88"/>
     </row>
-    <row r="209" spans="1:24">
+    <row r="209" spans="1:24" ht="15.95">
       <c r="A209" s="25" t="s">
         <v>159</v>
       </c>
@@ -20537,7 +20535,7 @@
       <c r="W209" s="17"/>
       <c r="X209" s="88"/>
     </row>
-    <row r="210" spans="1:24">
+    <row r="210" spans="1:24" ht="15.95">
       <c r="A210" s="62" t="s">
         <v>159</v>
       </c>
@@ -20585,7 +20583,7 @@
       <c r="W210" s="66"/>
       <c r="X210" s="94"/>
     </row>
-    <row r="211" spans="1:24">
+    <row r="211" spans="1:24" ht="15.95">
       <c r="A211" s="62" t="s">
         <v>159</v>
       </c>
@@ -20633,7 +20631,7 @@
       <c r="W211" s="66"/>
       <c r="X211" s="94"/>
     </row>
-    <row r="212" spans="1:24">
+    <row r="212" spans="1:24" ht="15.95">
       <c r="A212" s="25" t="s">
         <v>159</v>
       </c>
@@ -20685,7 +20683,7 @@
       <c r="W212" s="17"/>
       <c r="X212" s="88"/>
     </row>
-    <row r="213" spans="1:24">
+    <row r="213" spans="1:24" ht="15.95">
       <c r="A213" s="62" t="s">
         <v>159</v>
       </c>
@@ -20735,7 +20733,7 @@
       <c r="W213" s="66"/>
       <c r="X213" s="94"/>
     </row>
-    <row r="214" spans="1:24">
+    <row r="214" spans="1:24" ht="15.95">
       <c r="A214" s="62" t="s">
         <v>159</v>
       </c>
@@ -20783,7 +20781,7 @@
       <c r="W214" s="66"/>
       <c r="X214" s="94"/>
     </row>
-    <row r="215" spans="1:24">
+    <row r="215" spans="1:24" ht="15.95">
       <c r="A215" s="25" t="s">
         <v>159</v>
       </c>
@@ -20835,7 +20833,7 @@
       <c r="W215" s="17"/>
       <c r="X215" s="88"/>
     </row>
-    <row r="216" spans="1:24">
+    <row r="216" spans="1:24" ht="15.95">
       <c r="A216" s="25" t="s">
         <v>159</v>
       </c>
@@ -20887,7 +20885,7 @@
       <c r="W216" s="17"/>
       <c r="X216" s="88"/>
     </row>
-    <row r="217" spans="1:24">
+    <row r="217" spans="1:24" ht="15.95">
       <c r="A217" s="62" t="s">
         <v>159</v>
       </c>
@@ -20935,7 +20933,7 @@
       <c r="W217" s="66"/>
       <c r="X217" s="94"/>
     </row>
-    <row r="218" spans="1:24">
+    <row r="218" spans="1:24" ht="15.95">
       <c r="A218" s="62" t="s">
         <v>159</v>
       </c>
@@ -20983,7 +20981,7 @@
       <c r="W218" s="66"/>
       <c r="X218" s="94"/>
     </row>
-    <row r="219" spans="1:24">
+    <row r="219" spans="1:24" ht="15.95">
       <c r="A219" s="25" t="s">
         <v>159</v>
       </c>
@@ -21035,7 +21033,7 @@
       <c r="W219" s="17"/>
       <c r="X219" s="88"/>
     </row>
-    <row r="220" spans="1:24">
+    <row r="220" spans="1:24" ht="15.95">
       <c r="A220" s="25" t="s">
         <v>159</v>
       </c>
@@ -21087,7 +21085,7 @@
       <c r="W220" s="17"/>
       <c r="X220" s="88"/>
     </row>
-    <row r="221" spans="1:24">
+    <row r="221" spans="1:24" ht="15.95">
       <c r="A221" s="25" t="s">
         <v>159</v>
       </c>
@@ -21139,7 +21137,7 @@
       <c r="W221" s="17"/>
       <c r="X221" s="88"/>
     </row>
-    <row r="222" spans="1:24">
+    <row r="222" spans="1:24" ht="15.95">
       <c r="A222" s="62" t="s">
         <v>159</v>
       </c>
@@ -21187,7 +21185,7 @@
       <c r="W222" s="66"/>
       <c r="X222" s="94"/>
     </row>
-    <row r="223" spans="1:24">
+    <row r="223" spans="1:24" ht="15.95">
       <c r="A223" s="25" t="s">
         <v>159</v>
       </c>
@@ -21239,7 +21237,7 @@
       <c r="W223" s="17"/>
       <c r="X223" s="88"/>
     </row>
-    <row r="224" spans="1:24">
+    <row r="224" spans="1:24" ht="15.95">
       <c r="A224" s="62" t="s">
         <v>159</v>
       </c>
@@ -21287,7 +21285,7 @@
       <c r="W224" s="66"/>
       <c r="X224" s="94"/>
     </row>
-    <row r="225" spans="1:24">
+    <row r="225" spans="1:24" ht="15.95">
       <c r="A225" s="25" t="s">
         <v>159</v>
       </c>
@@ -21339,7 +21337,7 @@
       <c r="W225" s="17"/>
       <c r="X225" s="88"/>
     </row>
-    <row r="226" spans="1:24">
+    <row r="226" spans="1:24" ht="15.95">
       <c r="A226" s="25" t="s">
         <v>159</v>
       </c>
@@ -21391,7 +21389,7 @@
       <c r="W226" s="17"/>
       <c r="X226" s="88"/>
     </row>
-    <row r="227" spans="1:24">
+    <row r="227" spans="1:24" ht="15.95">
       <c r="A227" s="25" t="s">
         <v>159</v>
       </c>
@@ -21443,7 +21441,7 @@
       <c r="W227" s="17"/>
       <c r="X227" s="88"/>
     </row>
-    <row r="228" spans="1:24">
+    <row r="228" spans="1:24" ht="15.95">
       <c r="A228" s="25" t="s">
         <v>159</v>
       </c>
@@ -21495,7 +21493,7 @@
       <c r="W228" s="17"/>
       <c r="X228" s="88"/>
     </row>
-    <row r="229" spans="1:24">
+    <row r="229" spans="1:24" ht="15.95">
       <c r="A229" s="25" t="s">
         <v>159</v>
       </c>
@@ -21547,7 +21545,7 @@
       <c r="W229" s="17"/>
       <c r="X229" s="88"/>
     </row>
-    <row r="230" spans="1:24">
+    <row r="230" spans="1:24" ht="15.95">
       <c r="A230" s="25" t="s">
         <v>159</v>
       </c>
@@ -21599,7 +21597,7 @@
       <c r="W230" s="17"/>
       <c r="X230" s="88"/>
     </row>
-    <row r="231" spans="1:24">
+    <row r="231" spans="1:24" ht="15.95">
       <c r="A231" s="25" t="s">
         <v>159</v>
       </c>
@@ -21651,7 +21649,7 @@
       <c r="W231" s="17"/>
       <c r="X231" s="88"/>
     </row>
-    <row r="232" spans="1:24">
+    <row r="232" spans="1:24" ht="15.95">
       <c r="A232" s="25" t="s">
         <v>159</v>
       </c>
@@ -21703,7 +21701,7 @@
       <c r="W232" s="17"/>
       <c r="X232" s="88"/>
     </row>
-    <row r="233" spans="1:24">
+    <row r="233" spans="1:24" ht="15.95">
       <c r="A233" s="25" t="s">
         <v>159</v>
       </c>
@@ -21755,7 +21753,7 @@
       <c r="W233" s="17"/>
       <c r="X233" s="88"/>
     </row>
-    <row r="234" spans="1:24">
+    <row r="234" spans="1:24" ht="15.95">
       <c r="A234" s="25" t="s">
         <v>159</v>
       </c>
@@ -21807,7 +21805,7 @@
       <c r="W234" s="17"/>
       <c r="X234" s="88"/>
     </row>
-    <row r="235" spans="1:24">
+    <row r="235" spans="1:24" ht="15.95">
       <c r="A235" s="25" t="s">
         <v>159</v>
       </c>
@@ -21859,7 +21857,7 @@
       <c r="W235" s="17"/>
       <c r="X235" s="88"/>
     </row>
-    <row r="236" spans="1:24">
+    <row r="236" spans="1:24" ht="15.95">
       <c r="A236" s="25" t="s">
         <v>159</v>
       </c>
@@ -21911,7 +21909,7 @@
       <c r="W236" s="17"/>
       <c r="X236" s="88"/>
     </row>
-    <row r="237" spans="1:24">
+    <row r="237" spans="1:24" ht="15.95">
       <c r="A237" s="25" t="s">
         <v>159</v>
       </c>
@@ -21963,7 +21961,7 @@
       <c r="W237" s="17"/>
       <c r="X237" s="88"/>
     </row>
-    <row r="238" spans="1:24">
+    <row r="238" spans="1:24" ht="15.95">
       <c r="A238" s="25" t="s">
         <v>159</v>
       </c>
@@ -22015,7 +22013,7 @@
       <c r="W238" s="17"/>
       <c r="X238" s="88"/>
     </row>
-    <row r="239" spans="1:24">
+    <row r="239" spans="1:24" ht="15.95">
       <c r="A239" s="25" t="s">
         <v>159</v>
       </c>
@@ -22067,7 +22065,7 @@
       <c r="W239" s="17"/>
       <c r="X239" s="88"/>
     </row>
-    <row r="240" spans="1:24">
+    <row r="240" spans="1:24" ht="15.95">
       <c r="A240" s="25" t="s">
         <v>159</v>
       </c>
@@ -22119,7 +22117,7 @@
       <c r="W240" s="17"/>
       <c r="X240" s="88"/>
     </row>
-    <row r="241" spans="1:24">
+    <row r="241" spans="1:24" ht="15.95">
       <c r="A241" s="25" t="s">
         <v>159</v>
       </c>
@@ -22171,7 +22169,7 @@
       <c r="W241" s="17"/>
       <c r="X241" s="88"/>
     </row>
-    <row r="242" spans="1:24">
+    <row r="242" spans="1:24" ht="15.95">
       <c r="A242" s="25" t="s">
         <v>159</v>
       </c>
@@ -22223,7 +22221,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:24">
+    <row r="243" spans="1:24" ht="15.95">
       <c r="A243" s="25" t="s">
         <v>159</v>
       </c>
@@ -22271,7 +22269,7 @@
       <c r="W243" s="17"/>
       <c r="X243" s="88"/>
     </row>
-    <row r="244" spans="1:24">
+    <row r="244" spans="1:24" ht="15.95" hidden="1">
       <c r="A244" s="25" t="s">
         <v>159</v>
       </c>
@@ -22319,7 +22317,7 @@
       <c r="W244" s="17"/>
       <c r="X244" s="88"/>
     </row>
-    <row r="245" spans="1:24">
+    <row r="245" spans="1:24" ht="15.95">
       <c r="A245" s="25" t="s">
         <v>159</v>
       </c>
@@ -22369,7 +22367,7 @@
       <c r="W245" s="17"/>
       <c r="X245" s="88"/>
     </row>
-    <row r="246" spans="1:24">
+    <row r="246" spans="1:24" ht="15.95">
       <c r="A246" s="25" t="s">
         <v>159</v>
       </c>
@@ -22421,7 +22419,7 @@
       <c r="W246" s="17"/>
       <c r="X246" s="88"/>
     </row>
-    <row r="247" spans="1:24">
+    <row r="247" spans="1:24" ht="15.95">
       <c r="A247" s="25" t="s">
         <v>159</v>
       </c>
@@ -22473,7 +22471,7 @@
       <c r="W247" s="17"/>
       <c r="X247" s="88"/>
     </row>
-    <row r="248" spans="1:24">
+    <row r="248" spans="1:24" ht="15.95">
       <c r="A248" s="25" t="s">
         <v>159</v>
       </c>
@@ -22525,7 +22523,7 @@
       <c r="W248" s="17"/>
       <c r="X248" s="88"/>
     </row>
-    <row r="249" spans="1:24">
+    <row r="249" spans="1:24" ht="15.95">
       <c r="A249" s="25" t="s">
         <v>159</v>
       </c>
@@ -22577,7 +22575,7 @@
       <c r="W249" s="17"/>
       <c r="X249" s="88"/>
     </row>
-    <row r="250" spans="1:24">
+    <row r="250" spans="1:24" ht="15.95">
       <c r="A250" s="25" t="s">
         <v>159</v>
       </c>
@@ -22627,7 +22625,7 @@
       <c r="W250" s="17"/>
       <c r="X250" s="88"/>
     </row>
-    <row r="251" spans="1:24">
+    <row r="251" spans="1:24" ht="15.95" hidden="1">
       <c r="A251" s="25" t="s">
         <v>159</v>
       </c>
@@ -22675,7 +22673,7 @@
       <c r="W251" s="17"/>
       <c r="X251" s="88"/>
     </row>
-    <row r="252" spans="1:24">
+    <row r="252" spans="1:24" ht="15.95" hidden="1">
       <c r="A252" s="25" t="s">
         <v>159</v>
       </c>
@@ -22723,7 +22721,7 @@
       <c r="W252" s="17"/>
       <c r="X252" s="88"/>
     </row>
-    <row r="253" spans="1:24">
+    <row r="253" spans="1:24" ht="15.95">
       <c r="A253" s="25" t="s">
         <v>159</v>
       </c>
@@ -22773,7 +22771,7 @@
       <c r="W253" s="17"/>
       <c r="X253" s="88"/>
     </row>
-    <row r="254" spans="1:24">
+    <row r="254" spans="1:24" ht="15.95" hidden="1">
       <c r="A254" s="25" t="s">
         <v>159</v>
       </c>
@@ -22821,7 +22819,7 @@
       <c r="W254" s="17"/>
       <c r="X254" s="88"/>
     </row>
-    <row r="255" spans="1:24">
+    <row r="255" spans="1:24" ht="15.95">
       <c r="A255" s="25" t="s">
         <v>159</v>
       </c>
@@ -22873,7 +22871,7 @@
       <c r="W255" s="17"/>
       <c r="X255" s="88"/>
     </row>
-    <row r="256" spans="1:24">
+    <row r="256" spans="1:24" ht="15.95">
       <c r="A256" s="25" t="s">
         <v>159</v>
       </c>
@@ -22923,7 +22921,7 @@
       <c r="W256" s="17"/>
       <c r="X256" s="88"/>
     </row>
-    <row r="257" spans="1:24">
+    <row r="257" spans="1:24" ht="15.95" hidden="1">
       <c r="A257" s="25" t="s">
         <v>159</v>
       </c>
@@ -22971,7 +22969,7 @@
       <c r="W257" s="17"/>
       <c r="X257" s="88"/>
     </row>
-    <row r="258" spans="1:24">
+    <row r="258" spans="1:24" ht="15.95" hidden="1">
       <c r="A258" s="25" t="s">
         <v>159</v>
       </c>
@@ -23019,7 +23017,7 @@
       <c r="W258" s="17"/>
       <c r="X258" s="88"/>
     </row>
-    <row r="259" spans="1:24">
+    <row r="259" spans="1:24" ht="15.95">
       <c r="A259" s="25" t="s">
         <v>159</v>
       </c>
@@ -23069,7 +23067,7 @@
       <c r="W259" s="17"/>
       <c r="X259" s="88"/>
     </row>
-    <row r="260" spans="1:24">
+    <row r="260" spans="1:24" ht="15.95">
       <c r="A260" s="25" t="s">
         <v>159</v>
       </c>
@@ -23119,7 +23117,7 @@
       <c r="W260" s="17"/>
       <c r="X260" s="88"/>
     </row>
-    <row r="261" spans="1:24">
+    <row r="261" spans="1:24" ht="15.95">
       <c r="A261" s="25" t="s">
         <v>159</v>
       </c>
@@ -23169,7 +23167,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="262" spans="1:24">
+    <row r="262" spans="1:24" ht="15.95">
       <c r="A262" s="25" t="s">
         <v>159</v>
       </c>
@@ -23221,7 +23219,7 @@
       <c r="W262" s="17"/>
       <c r="X262" s="88"/>
     </row>
-    <row r="263" spans="1:24">
+    <row r="263" spans="1:24" ht="15.95">
       <c r="A263" s="25" t="s">
         <v>159</v>
       </c>
@@ -23273,7 +23271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="264" spans="1:24">
+    <row r="264" spans="1:24" ht="15.95">
       <c r="A264" s="25" t="s">
         <v>159</v>
       </c>
@@ -23325,7 +23323,7 @@
       <c r="W264" s="17"/>
       <c r="X264" s="88"/>
     </row>
-    <row r="265" spans="1:24">
+    <row r="265" spans="1:24" ht="15.95">
       <c r="A265" s="25" t="s">
         <v>159</v>
       </c>
@@ -23371,7 +23369,7 @@
       <c r="W265" s="49"/>
       <c r="X265" s="93"/>
     </row>
-    <row r="266" spans="1:24">
+    <row r="266" spans="1:24" ht="15.95" hidden="1">
       <c r="A266" s="25" t="s">
         <v>159</v>
       </c>
@@ -23415,7 +23413,7 @@
       <c r="W266" s="49"/>
       <c r="X266" s="93"/>
     </row>
-    <row r="267" spans="1:24">
+    <row r="267" spans="1:24" ht="15.95">
       <c r="A267" s="25" t="s">
         <v>159</v>
       </c>
@@ -23463,7 +23461,7 @@
       <c r="W267" s="49"/>
       <c r="X267" s="93"/>
     </row>
-    <row r="268" spans="1:24">
+    <row r="268" spans="1:24" ht="15.95">
       <c r="A268" s="25" t="s">
         <v>159</v>
       </c>
@@ -23509,7 +23507,7 @@
       <c r="W268" s="49"/>
       <c r="X268" s="93"/>
     </row>
-    <row r="269" spans="1:24">
+    <row r="269" spans="1:24" ht="15.95">
       <c r="A269" s="25" t="s">
         <v>159</v>
       </c>
@@ -23560,7 +23558,7 @@
       <c r="W269" s="49"/>
       <c r="X269" s="93"/>
     </row>
-    <row r="270" spans="1:24">
+    <row r="270" spans="1:24" ht="15.95" hidden="1">
       <c r="A270" s="25" t="s">
         <v>159</v>
       </c>
@@ -23607,7 +23605,7 @@
       <c r="W270" s="49"/>
       <c r="X270" s="93"/>
     </row>
-    <row r="271" spans="1:24">
+    <row r="271" spans="1:24" ht="15.95">
       <c r="A271" s="25" t="s">
         <v>159</v>
       </c>
@@ -23655,7 +23653,7 @@
       <c r="W271" s="49"/>
       <c r="X271" s="93"/>
     </row>
-    <row r="272" spans="1:24">
+    <row r="272" spans="1:24" ht="15.95">
       <c r="A272" s="25" t="s">
         <v>159</v>
       </c>
@@ -23704,7 +23702,7 @@
       <c r="W272" s="49"/>
       <c r="X272" s="93"/>
     </row>
-    <row r="273" spans="1:24">
+    <row r="273" spans="1:24" ht="15.95">
       <c r="A273" s="25" t="s">
         <v>159</v>
       </c>
@@ -23753,7 +23751,7 @@
       <c r="W273" s="49"/>
       <c r="X273" s="93"/>
     </row>
-    <row r="274" spans="1:24">
+    <row r="274" spans="1:24" ht="15.95">
       <c r="A274" s="25" t="s">
         <v>159</v>
       </c>
@@ -23804,7 +23802,7 @@
       <c r="W274" s="49"/>
       <c r="X274" s="93"/>
     </row>
-    <row r="275" spans="1:24">
+    <row r="275" spans="1:24" ht="15.95">
       <c r="A275" s="25" t="s">
         <v>159</v>
       </c>
@@ -23855,7 +23853,7 @@
       <c r="W275" s="49"/>
       <c r="X275" s="93"/>
     </row>
-    <row r="276" spans="1:24">
+    <row r="276" spans="1:24" ht="15.95">
       <c r="A276" s="25" t="s">
         <v>159</v>
       </c>
@@ -23905,7 +23903,7 @@
       <c r="W276" s="44"/>
       <c r="X276" s="92"/>
     </row>
-    <row r="277" spans="1:24">
+    <row r="277" spans="1:24" ht="15.95">
       <c r="A277" s="27" t="s">
         <v>1386</v>
       </c>
@@ -23963,7 +23961,7 @@
       <c r="W277" s="117"/>
       <c r="X277" s="118"/>
     </row>
-    <row r="278" spans="1:24">
+    <row r="278" spans="1:24" ht="15.95">
       <c r="A278" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24017,7 +24015,7 @@
       <c r="W278" s="17"/>
       <c r="X278" s="88"/>
     </row>
-    <row r="279" spans="1:24">
+    <row r="279" spans="1:24" ht="15.95">
       <c r="A279" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24069,7 +24067,7 @@
       <c r="W279" s="17"/>
       <c r="X279" s="88"/>
     </row>
-    <row r="280" spans="1:24">
+    <row r="280" spans="1:24" ht="15.95">
       <c r="A280" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24120,7 +24118,7 @@
       <c r="W280" s="17"/>
       <c r="X280" s="88"/>
     </row>
-    <row r="281" spans="1:24">
+    <row r="281" spans="1:24" ht="15.95">
       <c r="A281" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24170,7 +24168,7 @@
       <c r="W281" s="17"/>
       <c r="X281" s="88"/>
     </row>
-    <row r="282" spans="1:24">
+    <row r="282" spans="1:24" ht="15.95" hidden="1">
       <c r="A282" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24220,7 +24218,7 @@
       <c r="W282" s="17"/>
       <c r="X282" s="88"/>
     </row>
-    <row r="283" spans="1:24">
+    <row r="283" spans="1:24" ht="15.95">
       <c r="A283" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24272,7 +24270,7 @@
       <c r="W283" s="17"/>
       <c r="X283" s="88"/>
     </row>
-    <row r="284" spans="1:24">
+    <row r="284" spans="1:24" ht="15.95">
       <c r="A284" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24297,7 +24295,7 @@
       <c r="I284" s="6" t="s">
         <v>1415</v>
       </c>
-      <c r="J284" s="132" t="s">
+      <c r="J284" t="s">
         <v>97</v>
       </c>
       <c r="K284" s="5" t="s">
@@ -24329,7 +24327,7 @@
       <c r="W284" s="17"/>
       <c r="X284" s="88"/>
     </row>
-    <row r="285" spans="1:24" ht="77.25">
+    <row r="285" spans="1:24" ht="68.099999999999994">
       <c r="A285" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24380,7 +24378,7 @@
       <c r="W285" s="17"/>
       <c r="X285" s="88"/>
     </row>
-    <row r="286" spans="1:24">
+    <row r="286" spans="1:24" ht="15.95">
       <c r="A286" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24432,7 +24430,7 @@
       <c r="W286" s="17"/>
       <c r="X286" s="88"/>
     </row>
-    <row r="287" spans="1:24">
+    <row r="287" spans="1:24" ht="15.95">
       <c r="A287" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24484,7 +24482,7 @@
       <c r="W287" s="17"/>
       <c r="X287" s="88"/>
     </row>
-    <row r="288" spans="1:24">
+    <row r="288" spans="1:24" ht="15.95">
       <c r="A288" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24536,7 +24534,7 @@
       <c r="W288" s="17"/>
       <c r="X288" s="88"/>
     </row>
-    <row r="289" spans="1:24">
+    <row r="289" spans="1:24" ht="17.100000000000001">
       <c r="A289" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24586,7 +24584,7 @@
       <c r="W289" s="17"/>
       <c r="X289" s="88"/>
     </row>
-    <row r="290" spans="1:24">
+    <row r="290" spans="1:24" ht="15.95" hidden="1">
       <c r="A290" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24633,7 +24631,7 @@
       <c r="W290" s="17"/>
       <c r="X290" s="88"/>
     </row>
-    <row r="291" spans="1:24">
+    <row r="291" spans="1:24" ht="15.95">
       <c r="A291" s="25" t="s">
         <v>1386</v>
       </c>
@@ -24681,7 +24679,7 @@
       <c r="W291" s="44"/>
       <c r="X291" s="92"/>
     </row>
-    <row r="292" spans="1:24">
+    <row r="292" spans="1:24" ht="15.95">
       <c r="A292" s="27" t="s">
         <v>1444</v>
       </c>
@@ -24796,7 +24794,7 @@
       <c r="W293" s="17"/>
       <c r="X293" s="88"/>
     </row>
-    <row r="294" spans="1:24">
+    <row r="294" spans="1:24" ht="15.95">
       <c r="A294" s="25" t="s">
         <v>1444</v>
       </c>
@@ -24853,7 +24851,7 @@
       <c r="W294" s="17"/>
       <c r="X294" s="88"/>
     </row>
-    <row r="295" spans="1:24">
+    <row r="295" spans="1:24" ht="15.95">
       <c r="A295" s="25" t="s">
         <v>1444</v>
       </c>
@@ -24907,7 +24905,7 @@
       <c r="W295" s="17"/>
       <c r="X295" s="88"/>
     </row>
-    <row r="296" spans="1:24">
+    <row r="296" spans="1:24" ht="15.95" hidden="1">
       <c r="A296" s="25" t="s">
         <v>1444</v>
       </c>
@@ -24957,7 +24955,7 @@
       <c r="W296" s="17"/>
       <c r="X296" s="88"/>
     </row>
-    <row r="297" spans="1:24">
+    <row r="297" spans="1:24" ht="15.95">
       <c r="A297" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25003,7 +25001,7 @@
       <c r="W297" s="17"/>
       <c r="X297" s="88"/>
     </row>
-    <row r="298" spans="1:24">
+    <row r="298" spans="1:24" ht="15.95">
       <c r="A298" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25057,7 +25055,7 @@
       <c r="W298" s="17"/>
       <c r="X298" s="88"/>
     </row>
-    <row r="299" spans="1:24">
+    <row r="299" spans="1:24" ht="15.95" hidden="1">
       <c r="A299" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25103,7 +25101,7 @@
       <c r="W299" s="17"/>
       <c r="X299" s="88"/>
     </row>
-    <row r="300" spans="1:24">
+    <row r="300" spans="1:24" ht="15.95">
       <c r="A300" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25155,7 +25153,7 @@
       <c r="W300" s="17"/>
       <c r="X300" s="88"/>
     </row>
-    <row r="301" spans="1:24">
+    <row r="301" spans="1:24" ht="15.95">
       <c r="A301" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25207,7 +25205,7 @@
       <c r="W301" s="17"/>
       <c r="X301" s="88"/>
     </row>
-    <row r="302" spans="1:24">
+    <row r="302" spans="1:24" ht="15.95">
       <c r="A302" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25259,7 +25257,7 @@
       <c r="W302" s="17"/>
       <c r="X302" s="88"/>
     </row>
-    <row r="303" spans="1:24">
+    <row r="303" spans="1:24" ht="15.95">
       <c r="A303" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25311,7 +25309,7 @@
       <c r="W303" s="17"/>
       <c r="X303" s="88"/>
     </row>
-    <row r="304" spans="1:24">
+    <row r="304" spans="1:24" ht="15.95">
       <c r="A304" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25363,7 +25361,7 @@
       <c r="W304" s="17"/>
       <c r="X304" s="88"/>
     </row>
-    <row r="305" spans="1:24">
+    <row r="305" spans="1:24" ht="15.95">
       <c r="A305" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25415,7 +25413,7 @@
       <c r="W305" s="17"/>
       <c r="X305" s="88"/>
     </row>
-    <row r="306" spans="1:24">
+    <row r="306" spans="1:24" ht="15.95">
       <c r="A306" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25469,7 +25467,7 @@
       <c r="W306" s="17"/>
       <c r="X306" s="88"/>
     </row>
-    <row r="307" spans="1:24">
+    <row r="307" spans="1:24" ht="15.95">
       <c r="A307" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25521,7 +25519,7 @@
       <c r="W307" s="17"/>
       <c r="X307" s="88"/>
     </row>
-    <row r="308" spans="1:24">
+    <row r="308" spans="1:24" ht="15.95">
       <c r="A308" s="25" t="s">
         <v>1444</v>
       </c>
@@ -25569,7 +25567,7 @@
       <c r="W308" s="44"/>
       <c r="X308" s="92"/>
     </row>
-    <row r="309" spans="1:24">
+    <row r="309" spans="1:24" ht="15.95">
       <c r="A309" s="27" t="s">
         <v>1496</v>
       </c>
@@ -25633,7 +25631,7 @@
       <c r="W309" s="117"/>
       <c r="X309" s="118"/>
     </row>
-    <row r="310" spans="1:24">
+    <row r="310" spans="1:24" ht="15.95">
       <c r="A310" s="25" t="s">
         <v>1496</v>
       </c>
@@ -25693,7 +25691,7 @@
       <c r="W310" s="17"/>
       <c r="X310" s="88"/>
     </row>
-    <row r="311" spans="1:24">
+    <row r="311" spans="1:24" ht="15.95">
       <c r="A311" s="25" t="s">
         <v>1496</v>
       </c>
@@ -25805,7 +25803,7 @@
       <c r="W312" s="17"/>
       <c r="X312" s="88"/>
     </row>
-    <row r="313" spans="1:24">
+    <row r="313" spans="1:24" ht="15.95">
       <c r="A313" s="25" t="s">
         <v>1496</v>
       </c>
@@ -25861,7 +25859,7 @@
       <c r="W313" s="17"/>
       <c r="X313" s="88"/>
     </row>
-    <row r="314" spans="1:24">
+    <row r="314" spans="1:24" ht="15.95">
       <c r="A314" s="25" t="s">
         <v>1496</v>
       </c>
@@ -25923,7 +25921,7 @@
       <c r="W314" s="17"/>
       <c r="X314" s="88"/>
     </row>
-    <row r="315" spans="1:24">
+    <row r="315" spans="1:24" ht="15.95">
       <c r="A315" s="25" t="s">
         <v>1496</v>
       </c>
@@ -25981,7 +25979,7 @@
       <c r="W315" s="17"/>
       <c r="X315" s="88"/>
     </row>
-    <row r="316" spans="1:24">
+    <row r="316" spans="1:24" ht="15.95">
       <c r="A316" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26041,7 +26039,7 @@
       <c r="W316" s="17"/>
       <c r="X316" s="88"/>
     </row>
-    <row r="317" spans="1:24">
+    <row r="317" spans="1:24" ht="15.95">
       <c r="A317" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26101,7 +26099,7 @@
       <c r="W317" s="17"/>
       <c r="X317" s="88"/>
     </row>
-    <row r="318" spans="1:24">
+    <row r="318" spans="1:24" ht="15.95">
       <c r="A318" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26159,7 +26157,7 @@
       <c r="W318" s="17"/>
       <c r="X318" s="88"/>
     </row>
-    <row r="319" spans="1:24">
+    <row r="319" spans="1:24" ht="15.95">
       <c r="A319" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26217,7 +26215,7 @@
       <c r="W319" s="17"/>
       <c r="X319" s="88"/>
     </row>
-    <row r="320" spans="1:24">
+    <row r="320" spans="1:24" ht="15.95" hidden="1">
       <c r="A320" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26273,7 +26271,7 @@
       <c r="W320" s="17"/>
       <c r="X320" s="88"/>
     </row>
-    <row r="321" spans="1:24">
+    <row r="321" spans="1:24" ht="15.95" hidden="1">
       <c r="A321" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26329,7 +26327,7 @@
       <c r="W321" s="17"/>
       <c r="X321" s="88"/>
     </row>
-    <row r="322" spans="1:24">
+    <row r="322" spans="1:24" ht="15.95" hidden="1">
       <c r="A322" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26385,7 +26383,7 @@
       <c r="W322" s="17"/>
       <c r="X322" s="88"/>
     </row>
-    <row r="323" spans="1:24">
+    <row r="323" spans="1:24" ht="15.95" hidden="1">
       <c r="A323" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26441,7 +26439,7 @@
       <c r="W323" s="17"/>
       <c r="X323" s="88"/>
     </row>
-    <row r="324" spans="1:24">
+    <row r="324" spans="1:24" ht="15.95" hidden="1">
       <c r="A324" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26497,7 +26495,7 @@
       <c r="W324" s="17"/>
       <c r="X324" s="88"/>
     </row>
-    <row r="325" spans="1:24">
+    <row r="325" spans="1:24" ht="15.95">
       <c r="A325" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26555,7 +26553,7 @@
       <c r="W325" s="17"/>
       <c r="X325" s="88"/>
     </row>
-    <row r="326" spans="1:24">
+    <row r="326" spans="1:24" ht="15.95">
       <c r="A326" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26613,7 +26611,7 @@
       <c r="W326" s="17"/>
       <c r="X326" s="88"/>
     </row>
-    <row r="327" spans="1:24">
+    <row r="327" spans="1:24" ht="15.95">
       <c r="A327" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26671,7 +26669,7 @@
       <c r="W327" s="17"/>
       <c r="X327" s="88"/>
     </row>
-    <row r="328" spans="1:24">
+    <row r="328" spans="1:24" ht="15.95">
       <c r="A328" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26729,7 +26727,7 @@
       <c r="W328" s="17"/>
       <c r="X328" s="88"/>
     </row>
-    <row r="329" spans="1:24">
+    <row r="329" spans="1:24" ht="15.95" hidden="1">
       <c r="A329" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26785,7 +26783,7 @@
       <c r="W329" s="17"/>
       <c r="X329" s="88"/>
     </row>
-    <row r="330" spans="1:24">
+    <row r="330" spans="1:24" ht="15.95">
       <c r="A330" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26843,7 +26841,7 @@
       <c r="W330" s="17"/>
       <c r="X330" s="88"/>
     </row>
-    <row r="331" spans="1:24">
+    <row r="331" spans="1:24" ht="15.95">
       <c r="A331" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26901,7 +26899,7 @@
       <c r="W331" s="17"/>
       <c r="X331" s="88"/>
     </row>
-    <row r="332" spans="1:24">
+    <row r="332" spans="1:24" ht="15.95">
       <c r="A332" s="25" t="s">
         <v>1496</v>
       </c>
@@ -26961,7 +26959,7 @@
       <c r="W332" s="17"/>
       <c r="X332" s="88"/>
     </row>
-    <row r="333" spans="1:24">
+    <row r="333" spans="1:24" ht="15.95">
       <c r="A333" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27019,7 +27017,7 @@
       <c r="W333" s="17"/>
       <c r="X333" s="88"/>
     </row>
-    <row r="334" spans="1:24">
+    <row r="334" spans="1:24" ht="15.95">
       <c r="A334" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27079,7 +27077,7 @@
       <c r="W334" s="17"/>
       <c r="X334" s="88"/>
     </row>
-    <row r="335" spans="1:24">
+    <row r="335" spans="1:24" ht="15.95" hidden="1">
       <c r="A335" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27135,7 +27133,7 @@
       <c r="W335" s="17"/>
       <c r="X335" s="88"/>
     </row>
-    <row r="336" spans="1:24">
+    <row r="336" spans="1:24" ht="15.95">
       <c r="A336" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27187,7 +27185,7 @@
       <c r="W336" s="17"/>
       <c r="X336" s="88"/>
     </row>
-    <row r="337" spans="1:24">
+    <row r="337" spans="1:24" ht="15.95">
       <c r="A337" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27239,7 +27237,7 @@
       <c r="W337" s="17"/>
       <c r="X337" s="88"/>
     </row>
-    <row r="338" spans="1:24">
+    <row r="338" spans="1:24" ht="15.95">
       <c r="A338" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27291,7 +27289,7 @@
       <c r="W338" s="17"/>
       <c r="X338" s="88"/>
     </row>
-    <row r="339" spans="1:24">
+    <row r="339" spans="1:24" ht="15.95">
       <c r="A339" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27341,7 +27339,7 @@
       <c r="W339" s="17"/>
       <c r="X339" s="88"/>
     </row>
-    <row r="340" spans="1:24">
+    <row r="340" spans="1:24" ht="15.95">
       <c r="A340" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27393,7 +27391,7 @@
       <c r="W340" s="17"/>
       <c r="X340" s="88"/>
     </row>
-    <row r="341" spans="1:24">
+    <row r="341" spans="1:24" ht="15.95" hidden="1">
       <c r="A341" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27441,7 +27439,7 @@
       <c r="W341" s="17"/>
       <c r="X341" s="88"/>
     </row>
-    <row r="342" spans="1:24">
+    <row r="342" spans="1:24" ht="15.95">
       <c r="A342" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27491,7 +27489,7 @@
       <c r="W342" s="17"/>
       <c r="X342" s="88"/>
     </row>
-    <row r="343" spans="1:24">
+    <row r="343" spans="1:24" ht="15.95">
       <c r="A343" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27541,7 +27539,7 @@
       <c r="W343" s="17"/>
       <c r="X343" s="88"/>
     </row>
-    <row r="344" spans="1:24">
+    <row r="344" spans="1:24" ht="15.95">
       <c r="A344" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27591,7 +27589,7 @@
       <c r="W344" s="17"/>
       <c r="X344" s="88"/>
     </row>
-    <row r="345" spans="1:24">
+    <row r="345" spans="1:24" ht="15.95">
       <c r="A345" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27641,7 +27639,7 @@
       <c r="W345" s="17"/>
       <c r="X345" s="88"/>
     </row>
-    <row r="346" spans="1:24">
+    <row r="346" spans="1:24" ht="15.95">
       <c r="A346" s="25" t="s">
         <v>1496</v>
       </c>
@@ -27688,7 +27686,7 @@
       <c r="W346" s="44"/>
       <c r="X346" s="88"/>
     </row>
-    <row r="347" spans="1:24">
+    <row r="347" spans="1:24" ht="15.95">
       <c r="A347" s="27" t="s">
         <v>1643</v>
       </c>
@@ -27752,7 +27750,7 @@
       <c r="W347" s="117"/>
       <c r="X347" s="88"/>
     </row>
-    <row r="348" spans="1:24">
+    <row r="348" spans="1:24" ht="15.95">
       <c r="A348" s="25" t="s">
         <v>1643</v>
       </c>
@@ -27814,7 +27812,7 @@
       <c r="W348" s="17"/>
       <c r="X348" s="88"/>
     </row>
-    <row r="349" spans="1:24">
+    <row r="349" spans="1:24" ht="15.95">
       <c r="A349" s="25" t="s">
         <v>1643</v>
       </c>
@@ -27874,7 +27872,7 @@
       <c r="W349" s="17"/>
       <c r="X349" s="88"/>
     </row>
-    <row r="350" spans="1:24">
+    <row r="350" spans="1:24" ht="15.95">
       <c r="A350" s="25" t="s">
         <v>1643</v>
       </c>
@@ -27934,7 +27932,7 @@
       <c r="W350" s="17"/>
       <c r="X350" s="88"/>
     </row>
-    <row r="351" spans="1:24">
+    <row r="351" spans="1:24" ht="15.95" hidden="1">
       <c r="A351" s="25" t="s">
         <v>1643</v>
       </c>
@@ -27992,7 +27990,7 @@
       <c r="W351" s="17"/>
       <c r="X351" s="88"/>
     </row>
-    <row r="352" spans="1:24">
+    <row r="352" spans="1:24" ht="15.95" hidden="1">
       <c r="A352" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28048,7 +28046,7 @@
       <c r="W352" s="17"/>
       <c r="X352" s="88"/>
     </row>
-    <row r="353" spans="1:24">
+    <row r="353" spans="1:24" ht="15.95">
       <c r="A353" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28108,7 +28106,7 @@
       <c r="W353" s="17"/>
       <c r="X353" s="88"/>
     </row>
-    <row r="354" spans="1:24">
+    <row r="354" spans="1:24" ht="15.95">
       <c r="A354" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28168,7 +28166,7 @@
       <c r="W354" s="17"/>
       <c r="X354" s="88"/>
     </row>
-    <row r="355" spans="1:24">
+    <row r="355" spans="1:24" ht="15.95" hidden="1">
       <c r="A355" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28226,7 +28224,7 @@
       <c r="W355" s="17"/>
       <c r="X355" s="88"/>
     </row>
-    <row r="356" spans="1:24">
+    <row r="356" spans="1:24" ht="15.95">
       <c r="A356" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28288,7 +28286,7 @@
       <c r="W356" s="17"/>
       <c r="X356" s="88"/>
     </row>
-    <row r="357" spans="1:24">
+    <row r="357" spans="1:24" ht="15.95">
       <c r="A357" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28350,7 +28348,7 @@
       <c r="W357" s="17"/>
       <c r="X357" s="88"/>
     </row>
-    <row r="358" spans="1:24">
+    <row r="358" spans="1:24" ht="15.95" hidden="1">
       <c r="A358" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28408,7 +28406,7 @@
       <c r="W358" s="17"/>
       <c r="X358" s="88"/>
     </row>
-    <row r="359" spans="1:24">
+    <row r="359" spans="1:24" ht="15.95">
       <c r="A359" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28470,7 +28468,7 @@
       <c r="W359" s="17"/>
       <c r="X359" s="88"/>
     </row>
-    <row r="360" spans="1:24">
+    <row r="360" spans="1:24" ht="15.95">
       <c r="A360" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28532,7 +28530,7 @@
       <c r="W360" s="17"/>
       <c r="X360" s="88"/>
     </row>
-    <row r="361" spans="1:24">
+    <row r="361" spans="1:24" ht="15.95">
       <c r="A361" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28584,7 +28582,7 @@
       <c r="W361" s="17"/>
       <c r="X361" s="88"/>
     </row>
-    <row r="362" spans="1:24">
+    <row r="362" spans="1:24" ht="15.95">
       <c r="A362" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28634,7 +28632,7 @@
       <c r="W362" s="17"/>
       <c r="X362" s="88"/>
     </row>
-    <row r="363" spans="1:24">
+    <row r="363" spans="1:24" ht="15.95">
       <c r="A363" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28686,7 +28684,7 @@
       <c r="W363" s="17"/>
       <c r="X363" s="88"/>
     </row>
-    <row r="364" spans="1:24">
+    <row r="364" spans="1:24" ht="15.95">
       <c r="A364" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28736,7 +28734,7 @@
       <c r="W364" s="17"/>
       <c r="X364" s="88"/>
     </row>
-    <row r="365" spans="1:24">
+    <row r="365" spans="1:24" ht="15.95">
       <c r="A365" s="25" t="s">
         <v>1643</v>
       </c>
@@ -28788,7 +28786,7 @@
       <c r="W365" s="44"/>
       <c r="X365" s="92"/>
     </row>
-    <row r="366" spans="1:24">
+    <row r="366" spans="1:24" ht="15.95">
       <c r="A366" s="27" t="s">
         <v>1716</v>
       </c>
@@ -28846,7 +28844,7 @@
       <c r="W366" s="117"/>
       <c r="X366" s="118"/>
     </row>
-    <row r="367" spans="1:24">
+    <row r="367" spans="1:24" ht="15.95">
       <c r="A367" s="25" t="s">
         <v>1716</v>
       </c>
@@ -28898,7 +28896,7 @@
       <c r="W367" s="17"/>
       <c r="X367" s="88"/>
     </row>
-    <row r="368" spans="1:24">
+    <row r="368" spans="1:24" ht="15.95">
       <c r="A368" s="25" t="s">
         <v>1716</v>
       </c>
@@ -28950,7 +28948,7 @@
       <c r="W368" s="17"/>
       <c r="X368" s="88"/>
     </row>
-    <row r="369" spans="1:24">
+    <row r="369" spans="1:24" ht="15.95" hidden="1">
       <c r="A369" s="25" t="s">
         <v>1716</v>
       </c>
@@ -29000,7 +28998,7 @@
       <c r="W369" s="17"/>
       <c r="X369" s="88"/>
     </row>
-    <row r="370" spans="1:24">
+    <row r="370" spans="1:24" ht="15.95" hidden="1">
       <c r="A370" s="25" t="s">
         <v>1716</v>
       </c>
@@ -29050,7 +29048,7 @@
       <c r="W370" s="44"/>
       <c r="X370" s="92"/>
     </row>
-    <row r="371" spans="1:24">
+    <row r="371" spans="1:24" ht="15.95">
       <c r="A371" s="27" t="s">
         <v>1734</v>
       </c>
@@ -29108,7 +29106,7 @@
       <c r="W371" s="117"/>
       <c r="X371" s="118"/>
     </row>
-    <row r="372" spans="1:24">
+    <row r="372" spans="1:24" ht="15.95">
       <c r="A372" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29160,7 +29158,7 @@
       <c r="W372" s="17"/>
       <c r="X372" s="88"/>
     </row>
-    <row r="373" spans="1:24">
+    <row r="373" spans="1:24" ht="15.95">
       <c r="A373" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29212,7 +29210,7 @@
       <c r="W373" s="17"/>
       <c r="X373" s="88"/>
     </row>
-    <row r="374" spans="1:24">
+    <row r="374" spans="1:24" ht="15.95">
       <c r="A374" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29264,7 +29262,7 @@
       <c r="W374" s="17"/>
       <c r="X374" s="88"/>
     </row>
-    <row r="375" spans="1:24">
+    <row r="375" spans="1:24" ht="15.95">
       <c r="A375" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29316,7 +29314,7 @@
       <c r="W375" s="17"/>
       <c r="X375" s="88"/>
     </row>
-    <row r="376" spans="1:24">
+    <row r="376" spans="1:24" ht="15.95">
       <c r="A376" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29368,7 +29366,7 @@
       <c r="W376" s="17"/>
       <c r="X376" s="88"/>
     </row>
-    <row r="377" spans="1:24">
+    <row r="377" spans="1:24" ht="15.95">
       <c r="A377" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29420,7 +29418,7 @@
       <c r="W377" s="17"/>
       <c r="X377" s="88"/>
     </row>
-    <row r="378" spans="1:24">
+    <row r="378" spans="1:24" ht="15.95">
       <c r="A378" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29472,7 +29470,7 @@
       <c r="W378" s="17"/>
       <c r="X378" s="88"/>
     </row>
-    <row r="379" spans="1:24">
+    <row r="379" spans="1:24" ht="15.95">
       <c r="A379" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29524,7 +29522,7 @@
       <c r="W379" s="17"/>
       <c r="X379" s="88"/>
     </row>
-    <row r="380" spans="1:24">
+    <row r="380" spans="1:24" ht="15.95">
       <c r="A380" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29576,7 +29574,7 @@
       <c r="W380" s="17"/>
       <c r="X380" s="88"/>
     </row>
-    <row r="381" spans="1:24">
+    <row r="381" spans="1:24" ht="15.95">
       <c r="A381" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29628,7 +29626,7 @@
       <c r="W381" s="17"/>
       <c r="X381" s="88"/>
     </row>
-    <row r="382" spans="1:24">
+    <row r="382" spans="1:24" ht="15.95">
       <c r="A382" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29680,7 +29678,7 @@
       <c r="W382" s="17"/>
       <c r="X382" s="88"/>
     </row>
-    <row r="383" spans="1:24">
+    <row r="383" spans="1:24" ht="15.95">
       <c r="A383" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29732,7 +29730,7 @@
       <c r="W383" s="17"/>
       <c r="X383" s="88"/>
     </row>
-    <row r="384" spans="1:24">
+    <row r="384" spans="1:24" ht="15.95">
       <c r="A384" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29784,7 +29782,7 @@
       <c r="W384" s="17"/>
       <c r="X384" s="88"/>
     </row>
-    <row r="385" spans="1:24">
+    <row r="385" spans="1:24" ht="15.95">
       <c r="A385" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29838,7 +29836,7 @@
       <c r="W385" s="17"/>
       <c r="X385" s="88"/>
     </row>
-    <row r="386" spans="1:24">
+    <row r="386" spans="1:24" ht="15.95">
       <c r="A386" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29886,7 +29884,7 @@
       <c r="W386" s="17"/>
       <c r="X386" s="88"/>
     </row>
-    <row r="387" spans="1:24">
+    <row r="387" spans="1:24" ht="15.95">
       <c r="A387" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29936,7 +29934,7 @@
       <c r="W387" s="17"/>
       <c r="X387" s="88"/>
     </row>
-    <row r="388" spans="1:24">
+    <row r="388" spans="1:24" ht="15.95" hidden="1">
       <c r="A388" s="25" t="s">
         <v>1734</v>
       </c>
@@ -29982,7 +29980,7 @@
       <c r="W388" s="17"/>
       <c r="X388" s="88"/>
     </row>
-    <row r="389" spans="1:24">
+    <row r="389" spans="1:24" ht="15.95">
       <c r="A389" s="25" t="s">
         <v>1734</v>
       </c>
@@ -30030,7 +30028,7 @@
       <c r="W389" s="17"/>
       <c r="X389" s="88"/>
     </row>
-    <row r="390" spans="1:24">
+    <row r="390" spans="1:24" ht="15.95">
       <c r="A390" s="25" t="s">
         <v>1734</v>
       </c>
@@ -30078,7 +30076,7 @@
       <c r="W390" s="17"/>
       <c r="X390" s="88"/>
     </row>
-    <row r="391" spans="1:24">
+    <row r="391" spans="1:24" ht="15.95">
       <c r="A391" s="25" t="s">
         <v>1734</v>
       </c>
@@ -30128,7 +30126,7 @@
       <c r="W391" s="17"/>
       <c r="X391" s="88"/>
     </row>
-    <row r="392" spans="1:24">
+    <row r="392" spans="1:24" ht="15.95">
       <c r="A392" s="25" t="s">
         <v>1734</v>
       </c>
@@ -30176,7 +30174,7 @@
       <c r="W392" s="17"/>
       <c r="X392" s="88"/>
     </row>
-    <row r="393" spans="1:24">
+    <row r="393" spans="1:24" ht="15.95">
       <c r="A393" s="25" t="s">
         <v>1734</v>
       </c>
@@ -30226,7 +30224,7 @@
       <c r="W393" s="17"/>
       <c r="X393" s="88"/>
     </row>
-    <row r="394" spans="1:24">
+    <row r="394" spans="1:24" ht="15.95">
       <c r="A394" s="25" t="s">
         <v>1734</v>
       </c>
@@ -30274,7 +30272,7 @@
       <c r="W394" s="44"/>
       <c r="X394" s="92"/>
     </row>
-    <row r="395" spans="1:24">
+    <row r="395" spans="1:24" ht="15.95">
       <c r="A395" s="27" t="s">
         <v>1836</v>
       </c>
@@ -30332,7 +30330,7 @@
       <c r="W395" s="117"/>
       <c r="X395" s="118"/>
     </row>
-    <row r="396" spans="1:24">
+    <row r="396" spans="1:24" ht="15.95">
       <c r="A396" s="25" t="s">
         <v>1836</v>
       </c>
@@ -30384,7 +30382,7 @@
       <c r="W396" s="17"/>
       <c r="X396" s="88"/>
     </row>
-    <row r="397" spans="1:24">
+    <row r="397" spans="1:24" ht="15.95">
       <c r="A397" s="25" t="s">
         <v>1836</v>
       </c>
@@ -30436,7 +30434,7 @@
       <c r="W397" s="17"/>
       <c r="X397" s="88"/>
     </row>
-    <row r="398" spans="1:24">
+    <row r="398" spans="1:24" ht="15.95">
       <c r="A398" s="25" t="s">
         <v>1836</v>
       </c>
@@ -30488,7 +30486,7 @@
       <c r="W398" s="17"/>
       <c r="X398" s="88"/>
     </row>
-    <row r="399" spans="1:24">
+    <row r="399" spans="1:24" ht="15.95">
       <c r="A399" s="25" t="s">
         <v>1847</v>
       </c>
@@ -30540,7 +30538,7 @@
       <c r="W399" s="17"/>
       <c r="X399" s="88"/>
     </row>
-    <row r="400" spans="1:24">
+    <row r="400" spans="1:24" ht="15.95">
       <c r="A400" s="25" t="s">
         <v>1847</v>
       </c>
@@ -30592,7 +30590,7 @@
       <c r="W400" s="17"/>
       <c r="X400" s="88"/>
     </row>
-    <row r="401" spans="1:24">
+    <row r="401" spans="1:24" ht="15.95">
       <c r="A401" s="25" t="s">
         <v>1847</v>
       </c>
@@ -30646,7 +30644,7 @@
       <c r="W401" s="17"/>
       <c r="X401" s="88"/>
     </row>
-    <row r="402" spans="1:24">
+    <row r="402" spans="1:24" ht="15.95">
       <c r="A402" s="25" t="s">
         <v>1847</v>
       </c>
@@ -30698,7 +30696,7 @@
       <c r="W402" s="17"/>
       <c r="X402" s="88"/>
     </row>
-    <row r="403" spans="1:24">
+    <row r="403" spans="1:24" ht="15.95">
       <c r="A403" s="25" t="s">
         <v>1847</v>
       </c>
@@ -30750,7 +30748,7 @@
       <c r="W403" s="17"/>
       <c r="X403" s="88"/>
     </row>
-    <row r="404" spans="1:24">
+    <row r="404" spans="1:24" ht="15.95">
       <c r="A404" s="25" t="s">
         <v>1847</v>
       </c>
@@ -30802,7 +30800,7 @@
       <c r="W404" s="17"/>
       <c r="X404" s="88"/>
     </row>
-    <row r="405" spans="1:24">
+    <row r="405" spans="1:24" ht="15.95">
       <c r="A405" s="25" t="s">
         <v>1847</v>
       </c>
@@ -30854,7 +30852,7 @@
       <c r="W405" s="17"/>
       <c r="X405" s="88"/>
     </row>
-    <row r="406" spans="1:24">
+    <row r="406" spans="1:24" ht="15.95">
       <c r="A406" s="25" t="s">
         <v>1847</v>
       </c>
@@ -30906,7 +30904,7 @@
       <c r="W406" s="44"/>
       <c r="X406" s="92"/>
     </row>
-    <row r="407" spans="1:24">
+    <row r="407" spans="1:24" ht="15.95">
       <c r="A407" s="27" t="s">
         <v>1880</v>
       </c>
@@ -30962,7 +30960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="408" spans="1:24">
+    <row r="408" spans="1:24" ht="15.95">
       <c r="A408" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31014,7 +31012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="409" spans="1:24">
+    <row r="409" spans="1:24" ht="15.95">
       <c r="A409" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31064,7 +31062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="410" spans="1:24">
+    <row r="410" spans="1:24" ht="15.95">
       <c r="A410" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31114,7 +31112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="411" spans="1:24">
+    <row r="411" spans="1:24" ht="15.95">
       <c r="A411" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31164,7 +31162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="412" spans="1:24">
+    <row r="412" spans="1:24" ht="15.95">
       <c r="A412" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31216,7 +31214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="413" spans="1:24">
+    <row r="413" spans="1:24" ht="15.95">
       <c r="A413" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31266,7 +31264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="414" spans="1:24">
+    <row r="414" spans="1:24" ht="15.95">
       <c r="A414" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31318,7 +31316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="415" spans="1:24">
+    <row r="415" spans="1:24" ht="15.95" hidden="1">
       <c r="A415" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31366,7 +31364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="416" spans="1:24">
+    <row r="416" spans="1:24" ht="15.95">
       <c r="A416" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31418,7 +31416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="417" spans="1:24">
+    <row r="417" spans="1:24" ht="15.95">
       <c r="A417" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31470,7 +31468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="418" spans="1:24">
+    <row r="418" spans="1:24" ht="15.95">
       <c r="A418" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31522,7 +31520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="419" spans="1:24">
+    <row r="419" spans="1:24" ht="15.95">
       <c r="A419" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31574,7 +31572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="420" spans="1:24">
+    <row r="420" spans="1:24" ht="15.95">
       <c r="A420" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31626,7 +31624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="421" spans="1:24">
+    <row r="421" spans="1:24" ht="15.95">
       <c r="A421" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31678,7 +31676,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="422" spans="1:24">
+    <row r="422" spans="1:24" ht="15.95">
       <c r="A422" s="25" t="s">
         <v>1880</v>
       </c>
@@ -31730,7 +31728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="423" spans="1:24">
+    <row r="423" spans="1:24" ht="15.95">
       <c r="A423" s="28" t="s">
         <v>1880</v>
       </c>
@@ -32694,7 +32692,15 @@
       <c r="X438" s="88"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X438" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}"/>
+  <autoFilter ref="A1:X438" xr:uid="{545CA0C1-0282-3A43-9C60-512DE414A571}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="file"/>
+        <filter val="ontology"/>
+        <filter val="string"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:Q438 S2:X438" xr:uid="{D3C8CE10-E7EB-B24A-855C-B8189CB5A06C}"/>
   </dataValidations>
@@ -33007,8 +33013,8 @@
   </sheetPr>
   <dimension ref="A1:AW299"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" customHeight="1"/>
@@ -33553,12 +33559,14 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="T4" s="1" t="s">
+        <v>2064</v>
+      </c>
       <c r="U4" s="1" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
@@ -33566,13 +33574,13 @@
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>1684</v>
@@ -33588,94 +33596,94 @@
       </c>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="AK4" s="1" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>1802</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>1293</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="AS4" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="AT4" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="AU4" t="s">
         <v>1352</v>
       </c>
       <c r="AV4" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="AW4" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="5" spans="1:49" ht="15.95">
       <c r="A5" s="1" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -33683,13 +33691,13 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="2" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -33698,100 +33706,100 @@
         <v>1293</v>
       </c>
       <c r="AE5" s="1" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="AK5" s="1" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="AS5" t="s">
         <v>178</v>
       </c>
       <c r="AT5" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="AU5" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="AV5" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="AW5" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="6" spans="1:49" ht="15.95">
       <c r="A6" s="1" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -33800,7 +33808,7 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="2" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -33816,69 +33824,69 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="AP6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="AS6" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="AT6" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="AU6" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="AV6" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="AW6" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="7" spans="1:49" ht="15.95">
       <c r="A7" s="1" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>429</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>490</v>
@@ -33886,11 +33894,11 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -33899,7 +33907,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="2" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -33918,40 +33926,40 @@
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
       <c r="AP7" s="1" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="1" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="AS7" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="AT7" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="AU7" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="AW7" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="8" spans="1:49" ht="15.95">
       <c r="A8" s="1" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1293</v>
@@ -33960,21 +33968,21 @@
         <v>1293</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -33983,7 +33991,7 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="2" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -34002,43 +34010,43 @@
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
       <c r="AP8" s="1" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="1" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="AS8" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AT8" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="AU8" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="9" spans="1:49" ht="15.95">
       <c r="A9" s="1" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>2058</v>
@@ -34046,16 +34054,16 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -34064,7 +34072,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="2" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -34088,35 +34096,35 @@
       <c r="AP9" s="1"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="AS9" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="AT9" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="AU9" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="15.95">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -34126,7 +34134,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -34135,7 +34143,7 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="2" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -34159,26 +34167,26 @@
       <c r="AP10" s="1"/>
       <c r="AQ10" s="1"/>
       <c r="AR10" s="1" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="AU10" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="11" spans="1:49" ht="15.95">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>424</v>
@@ -34191,7 +34199,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -34200,7 +34208,7 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="2" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -34224,25 +34232,25 @@
       <c r="AP11" s="1"/>
       <c r="AQ11" s="1"/>
       <c r="AR11" s="1" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="AU11" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="12" spans="1:49" ht="15.95">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -34252,7 +34260,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -34283,20 +34291,20 @@
       <c r="AP12" s="1"/>
       <c r="AQ12" s="1"/>
       <c r="AR12" s="1" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="AU12" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="13" spans="1:49" ht="15.95">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -34340,20 +34348,20 @@
       <c r="AP13" s="1"/>
       <c r="AQ13" s="1"/>
       <c r="AR13" s="1" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="AU13" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="14" spans="1:49" ht="15.95">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -34366,7 +34374,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -34397,20 +34405,20 @@
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="AU14" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="15" spans="1:49" ht="15.95">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -34452,20 +34460,20 @@
       <c r="AP15" s="1"/>
       <c r="AQ15" s="1"/>
       <c r="AR15" s="1" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="AU15" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="16" spans="1:49" ht="15.95">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="D16" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -34507,20 +34515,20 @@
       <c r="AP16" s="1"/>
       <c r="AQ16" s="1"/>
       <c r="AR16" s="1" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="AU16" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="15.95">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -34562,20 +34570,20 @@
       <c r="AP17" s="1"/>
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="AU17" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="15.95">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -34617,20 +34625,20 @@
       <c r="AP18" s="1"/>
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="AU18" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="15.95">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -34672,20 +34680,20 @@
       <c r="AP19" s="1"/>
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="AU19" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="15.95">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -34727,20 +34735,20 @@
       <c r="AP20" s="1"/>
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="AU20" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="21" spans="1:47" ht="15.95">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -34782,20 +34790,20 @@
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="AU21" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="15.95">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -34837,20 +34845,20 @@
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="AU22" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="15.95">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -34892,20 +34900,20 @@
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="AU23" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="24" spans="1:47" ht="15.95">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -34947,20 +34955,20 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="AU24" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="25" spans="1:47" ht="15.95">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -35002,20 +35010,20 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="AU25" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="26" spans="1:47" ht="15.95">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -35057,20 +35065,20 @@
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="AU26" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="27" spans="1:47" ht="15.95">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -35112,20 +35120,20 @@
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="AU27" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="28" spans="1:47" ht="15.95">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -35167,20 +35175,20 @@
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AU28" t="s">
-        <v>2233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47" ht="15.95">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>2234</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>2234</v>
+      <c r="C29" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2235</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -35222,20 +35230,20 @@
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="AU29" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="30" spans="1:47" ht="15.95">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -35277,20 +35285,20 @@
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AU30" t="s">
-        <v>2239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:47" ht="15.95">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>204</v>
+        <v>2241</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>204</v>
+        <v>2241</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -35332,20 +35340,20 @@
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1" t="s">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="AU31" t="s">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="32" spans="1:47" ht="15.95">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>2242</v>
+        <v>204</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>2242</v>
+        <v>204</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -35387,20 +35395,20 @@
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="AU32" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:47" ht="15.95">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -35443,17 +35451,17 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
       <c r="AU33" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:47" ht="15.95">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -35496,17 +35504,17 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
       <c r="AU34" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:47" ht="15.95">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -35549,17 +35557,17 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
       <c r="AU35" t="s">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:47" ht="15.95">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -35602,17 +35610,17 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
       <c r="AU36" t="s">
-        <v>2252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:47" ht="15.95">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -35655,17 +35663,17 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
       <c r="AU37" t="s">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="38" spans="1:47" ht="15.95">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -35708,17 +35716,17 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
       <c r="AU38" t="s">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="39" spans="1:47" ht="15.95">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -35761,17 +35769,17 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
       <c r="AU39" t="s">
-        <v>2258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:47" ht="15.95">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -35814,17 +35822,17 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
       <c r="AU40" t="s">
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:47" ht="15.95">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -35867,17 +35875,17 @@
       <c r="AQ41" s="1"/>
       <c r="AR41" s="1"/>
       <c r="AU41" t="s">
-        <v>2262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:47" ht="15.95">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -35920,17 +35928,17 @@
       <c r="AQ42" s="1"/>
       <c r="AR42" s="1"/>
       <c r="AU42" t="s">
-        <v>2264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:47" ht="15.95">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -35973,17 +35981,17 @@
       <c r="AQ43" s="1"/>
       <c r="AR43" s="1"/>
       <c r="AU43" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="44" spans="1:47" ht="15.95">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -36026,17 +36034,17 @@
       <c r="AQ44" s="1"/>
       <c r="AR44" s="1"/>
       <c r="AU44" t="s">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="45" spans="1:47" ht="15.95">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -36079,17 +36087,17 @@
       <c r="AQ45" s="1"/>
       <c r="AR45" s="1"/>
       <c r="AU45" t="s">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:47" ht="15.95">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -36132,17 +36140,17 @@
       <c r="AQ46" s="1"/>
       <c r="AR46" s="1"/>
       <c r="AU46" t="s">
-        <v>2272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:47" ht="15.95">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -36185,17 +36193,17 @@
       <c r="AQ47" s="1"/>
       <c r="AR47" s="1"/>
       <c r="AU47" t="s">
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:47" ht="15.95">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:47">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -36238,17 +36246,17 @@
       <c r="AQ48" s="1"/>
       <c r="AR48" s="1"/>
       <c r="AU48" t="s">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:47" ht="15.95">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:47">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -36291,17 +36299,17 @@
       <c r="AQ49" s="1"/>
       <c r="AR49" s="1"/>
       <c r="AU49" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:47" ht="15.95">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="50" spans="1:47">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -36344,17 +36352,17 @@
       <c r="AQ50" s="1"/>
       <c r="AR50" s="1"/>
       <c r="AU50" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="51" spans="1:47" ht="15.95">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="51" spans="1:47">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -36397,17 +36405,17 @@
       <c r="AQ51" s="1"/>
       <c r="AR51" s="1"/>
       <c r="AU51" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:47" ht="15.95">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:47">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -36450,17 +36458,17 @@
       <c r="AQ52" s="1"/>
       <c r="AR52" s="1"/>
       <c r="AU52" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:47" ht="15.95">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:47">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -36503,17 +36511,17 @@
       <c r="AQ53" s="1"/>
       <c r="AR53" s="1"/>
       <c r="AU53" t="s">
-        <v>2286</v>
-      </c>
-    </row>
-    <row r="54" spans="1:47" ht="15.95">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:47">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -36556,17 +36564,17 @@
       <c r="AQ54" s="1"/>
       <c r="AR54" s="1"/>
       <c r="AU54" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:47" ht="15.95">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:47">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -36609,17 +36617,17 @@
       <c r="AQ55" s="1"/>
       <c r="AR55" s="1"/>
       <c r="AU55" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:47" ht="15.95">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:47">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -36662,17 +36670,17 @@
       <c r="AQ56" s="1"/>
       <c r="AR56" s="1"/>
       <c r="AU56" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:47" ht="15.95">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:47">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -36715,17 +36723,17 @@
       <c r="AQ57" s="1"/>
       <c r="AR57" s="1"/>
       <c r="AU57" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="58" spans="1:47" ht="15.95">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -36768,17 +36776,17 @@
       <c r="AQ58" s="1"/>
       <c r="AR58" s="1"/>
       <c r="AU58" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="59" spans="1:47" ht="15.95">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="59" spans="1:47">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -36821,17 +36829,17 @@
       <c r="AQ59" s="1"/>
       <c r="AR59" s="1"/>
       <c r="AU59" t="s">
-        <v>2298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:47" ht="15.95">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:47">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -36874,17 +36882,17 @@
       <c r="AQ60" s="1"/>
       <c r="AR60" s="1"/>
       <c r="AU60" t="s">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:47" ht="15.95">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:47">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -36927,17 +36935,17 @@
       <c r="AQ61" s="1"/>
       <c r="AR61" s="1"/>
       <c r="AU61" t="s">
-        <v>2302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:47" ht="15.95">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:47">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -36980,17 +36988,17 @@
       <c r="AQ62" s="1"/>
       <c r="AR62" s="1"/>
       <c r="AU62" t="s">
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="63" spans="1:47" ht="15.95">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:47">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -37033,17 +37041,17 @@
       <c r="AQ63" s="1"/>
       <c r="AR63" s="1"/>
       <c r="AU63" t="s">
-        <v>2306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:47" ht="15.95">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:47">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -37086,17 +37094,17 @@
       <c r="AQ64" s="1"/>
       <c r="AR64" s="1"/>
       <c r="AU64" t="s">
-        <v>2308</v>
-      </c>
-    </row>
-    <row r="65" spans="1:47" ht="15.95">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -37139,17 +37147,17 @@
       <c r="AQ65" s="1"/>
       <c r="AR65" s="1"/>
       <c r="AU65" t="s">
-        <v>2310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:47" ht="15.95">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="66" spans="1:47">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -37192,17 +37200,17 @@
       <c r="AQ66" s="1"/>
       <c r="AR66" s="1"/>
       <c r="AU66" t="s">
-        <v>2312</v>
-      </c>
-    </row>
-    <row r="67" spans="1:47" ht="15.95">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:47">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -37245,17 +37253,17 @@
       <c r="AQ67" s="1"/>
       <c r="AR67" s="1"/>
       <c r="AU67" t="s">
-        <v>2314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:47" ht="15.95">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:47">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -37298,17 +37306,17 @@
       <c r="AQ68" s="1"/>
       <c r="AR68" s="1"/>
       <c r="AU68" t="s">
-        <v>2316</v>
-      </c>
-    </row>
-    <row r="69" spans="1:47" ht="15.95">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:47">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -37351,17 +37359,17 @@
       <c r="AQ69" s="1"/>
       <c r="AR69" s="1"/>
       <c r="AU69" t="s">
-        <v>2318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:47" ht="15.95">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:47">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -37404,17 +37412,17 @@
       <c r="AQ70" s="1"/>
       <c r="AR70" s="1"/>
       <c r="AU70" t="s">
-        <v>2320</v>
-      </c>
-    </row>
-    <row r="71" spans="1:47" ht="15.95">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:47">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -37457,17 +37465,17 @@
       <c r="AQ71" s="1"/>
       <c r="AR71" s="1"/>
       <c r="AU71" t="s">
-        <v>2322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:47" ht="15.95">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:47">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -37510,17 +37518,17 @@
       <c r="AQ72" s="1"/>
       <c r="AR72" s="1"/>
       <c r="AU72" t="s">
-        <v>2324</v>
-      </c>
-    </row>
-    <row r="73" spans="1:47" ht="15.95">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:47">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -37563,17 +37571,17 @@
       <c r="AQ73" s="1"/>
       <c r="AR73" s="1"/>
       <c r="AU73" t="s">
-        <v>2326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:47" ht="15.95">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:47">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>2158</v>
+        <v>2328</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>2158</v>
+        <v>2328</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -37616,17 +37624,17 @@
       <c r="AQ74" s="1"/>
       <c r="AR74" s="1"/>
       <c r="AU74" t="s">
-        <v>2327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:47" ht="15.95">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:47">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>2168</v>
+        <v>2159</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>2168</v>
+        <v>2159</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -37669,243 +37677,249 @@
       <c r="AQ75" s="1"/>
       <c r="AR75" s="1"/>
       <c r="AU75" t="s">
-        <v>2328</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="76" spans="1:47" ht="15.75" customHeight="1">
       <c r="C76" s="1" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>2175</v>
+        <v>2169</v>
       </c>
       <c r="AU76" t="s">
-        <v>2329</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="77" spans="1:47" ht="15.75" customHeight="1">
+      <c r="C77" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>2176</v>
+      </c>
       <c r="AU77" t="s">
-        <v>2330</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="78" spans="1:47" ht="15.75" customHeight="1">
       <c r="AU78" t="s">
-        <v>2331</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="79" spans="1:47" ht="15.75" customHeight="1">
       <c r="AU79" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="80" spans="1:47" ht="15.75" customHeight="1">
       <c r="AU80" t="s">
-        <v>2333</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="81" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU81" t="s">
-        <v>2334</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="82" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU82" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="83" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU83" t="s">
-        <v>2336</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="84" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU84" t="s">
-        <v>2337</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="85" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU85" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="86" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU86" t="s">
-        <v>2339</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="87" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU87" t="s">
-        <v>2340</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="88" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU88" t="s">
-        <v>2341</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="89" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU89" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="90" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU90" t="s">
-        <v>2343</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="91" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU91" t="s">
-        <v>2344</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="92" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU92" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="93" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU93" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="94" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU94" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="95" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU95" t="s">
-        <v>2348</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="96" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU96" t="s">
-        <v>2349</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="97" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU97" t="s">
-        <v>2350</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="98" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU98" t="s">
-        <v>2351</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="99" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU99" t="s">
-        <v>2352</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="100" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU100" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="101" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU101" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="102" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU102" t="s">
-        <v>2355</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="103" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU103" t="s">
-        <v>2356</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="104" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU104" t="s">
-        <v>2357</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="105" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU105" t="s">
-        <v>2358</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="106" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU106" t="s">
-        <v>2359</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="107" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU107" t="s">
-        <v>2360</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="108" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU108" t="s">
-        <v>2361</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="109" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU109" t="s">
-        <v>2362</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="110" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU110" t="s">
-        <v>2363</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="111" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU111" t="s">
-        <v>2364</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="112" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU112" t="s">
-        <v>2365</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="113" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU113" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="114" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU114" t="s">
-        <v>2367</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="115" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU115" t="s">
-        <v>2368</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="116" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU116" t="s">
-        <v>2369</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="117" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU117" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="118" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU118" t="s">
-        <v>2371</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="119" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU119" t="s">
-        <v>2372</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="120" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU120" t="s">
-        <v>2373</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="121" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU121" t="s">
-        <v>2374</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="122" spans="47:47" ht="15.75" customHeight="1">
@@ -37915,892 +37929,892 @@
     </row>
     <row r="123" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU123" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="124" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU124" t="s">
-        <v>2376</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="125" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU125" t="s">
-        <v>2377</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="126" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU126" t="s">
-        <v>2378</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="127" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU127" t="s">
-        <v>2379</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="128" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU128" t="s">
-        <v>2380</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="129" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU129" t="s">
-        <v>2381</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="130" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU130" t="s">
-        <v>2382</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="131" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU131" t="s">
-        <v>2383</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="132" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU132" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="133" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU133" t="s">
-        <v>2385</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="134" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU134" t="s">
-        <v>2386</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="135" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU135" t="s">
-        <v>2387</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="136" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU136" t="s">
-        <v>2388</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="137" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU137" t="s">
-        <v>2389</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="138" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU138" t="s">
-        <v>2390</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="139" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU139" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="140" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU140" t="s">
-        <v>2392</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="141" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU141" t="s">
-        <v>2393</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="142" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU142" t="s">
-        <v>2394</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="143" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU143" t="s">
-        <v>2395</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="144" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU144" t="s">
-        <v>2396</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="145" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU145" t="s">
-        <v>2397</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="146" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU146" t="s">
-        <v>2398</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="147" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU147" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="148" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU148" t="s">
-        <v>2400</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="149" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU149" t="s">
-        <v>2401</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="150" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU150" t="s">
-        <v>2402</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="151" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU151" t="s">
-        <v>2403</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="152" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU152" t="s">
-        <v>2404</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="153" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU153" t="s">
-        <v>2405</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="154" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU154" t="s">
-        <v>2406</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="155" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU155" t="s">
-        <v>2407</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="156" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU156" t="s">
-        <v>2408</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="157" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU157" t="s">
-        <v>2409</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="158" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU158" t="s">
-        <v>2410</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="159" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU159" t="s">
-        <v>2411</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="160" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU160" t="s">
-        <v>2412</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="161" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU161" t="s">
-        <v>2413</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="162" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU162" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="163" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU163" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="164" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU164" t="s">
-        <v>2416</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="165" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU165" t="s">
-        <v>2417</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="166" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU166" t="s">
-        <v>2418</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="167" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU167" t="s">
-        <v>2419</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="168" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU168" t="s">
-        <v>2420</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="169" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU169" t="s">
-        <v>2421</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="170" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU170" t="s">
-        <v>2422</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="171" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU171" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="172" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU172" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="173" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU173" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="174" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU174" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="175" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU175" t="s">
-        <v>2426</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="176" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU176" t="s">
-        <v>2427</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="177" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU177" t="s">
-        <v>2428</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="178" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU178" t="s">
-        <v>2429</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="179" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU179" t="s">
-        <v>2430</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="180" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU180" t="s">
-        <v>2431</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="181" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU181" t="s">
-        <v>2432</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="182" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU182" t="s">
-        <v>2433</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="183" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU183" t="s">
-        <v>2434</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="184" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU184" t="s">
-        <v>2435</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="185" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU185" t="s">
-        <v>2436</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="186" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU186" t="s">
-        <v>2437</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="187" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU187" t="s">
-        <v>2438</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="188" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU188" t="s">
-        <v>2439</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="189" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU189" t="s">
-        <v>2440</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="190" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU190" t="s">
-        <v>2441</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="191" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU191" t="s">
-        <v>2442</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="192" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU192" t="s">
-        <v>2443</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="193" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU193" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="194" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU194" t="s">
-        <v>2445</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="195" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU195" t="s">
-        <v>2446</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="196" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU196" t="s">
-        <v>2447</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="197" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU197" t="s">
-        <v>2448</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="198" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU198" t="s">
-        <v>2449</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="199" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU199" t="s">
-        <v>2450</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="200" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU200" t="s">
-        <v>2451</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="201" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU201" t="s">
-        <v>2452</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="202" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU202" t="s">
-        <v>2453</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="203" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU203" t="s">
-        <v>2454</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="204" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU204" t="s">
-        <v>2455</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="205" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU205" t="s">
-        <v>2456</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="206" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU206" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="207" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU207" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="208" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU208" t="s">
-        <v>2459</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="209" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU209" t="s">
-        <v>2460</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="210" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU210" t="s">
-        <v>2461</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="211" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU211" t="s">
-        <v>2462</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="212" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU212" t="s">
-        <v>2463</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="213" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU213" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="214" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU214" t="s">
-        <v>2465</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="215" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU215" t="s">
-        <v>2466</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="216" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU216" t="s">
-        <v>2467</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="217" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU217" t="s">
-        <v>2468</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="218" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU218" t="s">
-        <v>2469</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="219" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU219" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="220" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU220" t="s">
-        <v>2471</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="221" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU221" t="s">
-        <v>2472</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="222" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU222" t="s">
-        <v>2473</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="223" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU223" t="s">
-        <v>2474</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="224" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU224" t="s">
-        <v>2475</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="225" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU225" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="226" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU226" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="227" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU227" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="228" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU228" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="229" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU229" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="230" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU230" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="231" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU231" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="232" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU232" t="s">
-        <v>2483</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="233" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU233" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="234" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU234" t="s">
-        <v>2485</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="235" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU235" t="s">
-        <v>2486</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="236" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU236" t="s">
-        <v>2487</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="237" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU237" t="s">
-        <v>2488</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="238" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU238" t="s">
-        <v>2489</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="239" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU239" t="s">
-        <v>2490</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="240" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU240" t="s">
-        <v>2491</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="241" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU241" t="s">
-        <v>2492</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="242" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU242" t="s">
-        <v>2493</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="243" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU243" t="s">
-        <v>2494</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="244" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU244" t="s">
-        <v>2495</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="245" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU245" t="s">
-        <v>2496</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="246" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU246" t="s">
-        <v>2497</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="247" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU247" t="s">
-        <v>2498</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="248" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU248" t="s">
-        <v>2499</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="249" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU249" t="s">
-        <v>2500</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="250" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU250" t="s">
-        <v>2501</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="251" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU251" t="s">
-        <v>2502</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="252" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU252" t="s">
-        <v>2503</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="253" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU253" t="s">
-        <v>2504</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="254" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU254" t="s">
-        <v>2505</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="255" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU255" t="s">
-        <v>2506</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="256" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU256" t="s">
-        <v>2507</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="257" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU257" t="s">
-        <v>2508</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="258" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU258" t="s">
-        <v>2509</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="259" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU259" t="s">
-        <v>2510</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="260" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU260" t="s">
-        <v>2511</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="261" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU261" t="s">
-        <v>2512</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="262" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU262" t="s">
-        <v>2513</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="263" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU263" t="s">
-        <v>2514</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="264" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU264" t="s">
-        <v>2515</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="265" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU265" t="s">
-        <v>2516</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="266" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU266" t="s">
-        <v>2517</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="267" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU267" t="s">
-        <v>2518</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="268" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU268" t="s">
-        <v>2519</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="269" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU269" t="s">
-        <v>2520</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="270" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU270" t="s">
-        <v>2521</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="271" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU271" t="s">
-        <v>2522</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="272" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU272" t="s">
-        <v>2523</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="273" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU273" t="s">
-        <v>2524</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="274" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU274" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="275" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU275" t="s">
-        <v>2526</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="276" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU276" t="s">
-        <v>2527</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="277" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU277" t="s">
-        <v>2528</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="278" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU278" t="s">
-        <v>2529</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="279" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU279" t="s">
-        <v>2530</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="280" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU280" t="s">
-        <v>2531</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="281" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU281" t="s">
-        <v>2532</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="282" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU282" t="s">
-        <v>2533</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="283" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU283" t="s">
-        <v>2534</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="284" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU284" t="s">
-        <v>2535</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="285" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU285" t="s">
-        <v>2536</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="286" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU286" t="s">
-        <v>2537</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="287" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU287" t="s">
-        <v>2538</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="288" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU288" t="s">
-        <v>2539</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="289" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU289" t="s">
-        <v>2540</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="290" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU290" t="s">
-        <v>2541</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="291" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU291" t="s">
-        <v>2542</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="292" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU292" t="s">
-        <v>2543</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="293" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU293" t="s">
-        <v>2544</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="294" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU294" t="s">
-        <v>2545</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="295" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU295" t="s">
-        <v>2546</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="296" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU296" t="s">
-        <v>2547</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="297" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU297" t="s">
-        <v>2548</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="298" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU298" t="s">
-        <v>2549</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="299" spans="47:47" ht="15.75" customHeight="1">
       <c r="AU299" t="s">
-        <v>2550</v>
+        <v>2552</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B6">
-    <sortCondition ref="B3:B6"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C70">
+    <sortCondition ref="C2:C70"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -38814,49 +38828,49 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91" customWidth="1"/>
-    <col min="3" max="3" width="88.125" customWidth="1"/>
+    <col min="2" max="2" width="68.875" customWidth="1"/>
+    <col min="3" max="3" width="210.125" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>2553</v>
+        <v>2555</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>2554</v>
+        <v>2556</v>
       </c>
       <c r="C2" t="s">
-        <v>2555</v>
+        <v>2557</v>
       </c>
       <c r="D2" t="s">
         <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -38864,16 +38878,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>2557</v>
+        <v>2559</v>
       </c>
       <c r="C3" t="s">
-        <v>2558</v>
+        <v>2560</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -38881,118 +38895,118 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>2559</v>
+        <v>2561</v>
       </c>
       <c r="C4" t="s">
-        <v>2560</v>
+        <v>2562</v>
       </c>
       <c r="D4" t="s">
         <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>2561</v>
+        <v>2563</v>
       </c>
       <c r="C5" t="s">
-        <v>2562</v>
+        <v>2564</v>
       </c>
       <c r="D5" t="s">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>2556</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="106" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="106" t="s">
-        <v>2563</v>
+        <v>2565</v>
       </c>
       <c r="C6" s="106" t="s">
-        <v>2564</v>
+        <v>2566</v>
       </c>
       <c r="D6" s="106" t="s">
         <v>165</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>2566</v>
+        <v>2568</v>
       </c>
       <c r="C7" t="s">
-        <v>2567</v>
+        <v>2569</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>2568</v>
+        <v>2570</v>
       </c>
       <c r="C8" t="s">
-        <v>2569</v>
+        <v>2571</v>
       </c>
       <c r="D8" t="s">
         <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="106" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="106" t="s">
-        <v>2570</v>
+        <v>2572</v>
       </c>
       <c r="C9" s="106" t="s">
-        <v>2571</v>
+        <v>2573</v>
       </c>
       <c r="D9" s="106" t="s">
         <v>165</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>2572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>2573</v>
+        <v>2575</v>
       </c>
       <c r="C10" t="s">
-        <v>2574</v>
+        <v>2576</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -39000,16 +39014,16 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>2575</v>
+        <v>2577</v>
       </c>
       <c r="C11" t="s">
-        <v>2576</v>
+        <v>2578</v>
       </c>
       <c r="D11" t="s">
         <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
     </row>
   </sheetData>
@@ -39036,10 +39050,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -39047,7 +39061,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>2577</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -39055,7 +39069,7 @@
         <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>2578</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -39071,7 +39085,7 @@
         <v>1444</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2579</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -39079,7 +39093,7 @@
         <v>1496</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>2580</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -39087,7 +39101,7 @@
         <v>1643</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>2581</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -39095,7 +39109,7 @@
         <v>1716</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>2582</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -39103,7 +39117,7 @@
         <v>1734</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>2583</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -39111,7 +39125,7 @@
         <v>1836</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>2584</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -39119,7 +39133,7 @@
         <v>1847</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>2585</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -39127,7 +39141,7 @@
         <v>1880</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>2586</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -39135,7 +39149,7 @@
         <v>1721</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -39143,7 +39157,7 @@
         <v>1386</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>2588</v>
+        <v>2590</v>
       </c>
     </row>
   </sheetData>
@@ -39170,10 +39184,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="69" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>2589</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -39203,28 +39217,28 @@
   </sheetPr>
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="41.5" style="72" customWidth="1"/>
-    <col min="2" max="2" width="35.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="80.625" style="72" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="71" customWidth="1"/>
     <col min="4" max="5" width="9" style="71"/>
     <col min="6" max="9" width="9" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="17.100000000000001">
       <c r="A1" s="73" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1">
@@ -39232,21 +39246,21 @@
         <v>30</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25" customHeight="1">
       <c r="A3" s="74" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>2596</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="29.25" customHeight="1">
@@ -39254,43 +39268,43 @@
         <v>139</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>2597</v>
+        <v>2599</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>2598</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1">
       <c r="A5" s="74" t="s">
-        <v>2599</v>
+        <v>2601</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>2601</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23.25" customHeight="1">
       <c r="A6" s="74" t="s">
-        <v>2602</v>
+        <v>2604</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29.25" customHeight="1">
       <c r="A7" s="74" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="B7" s="74" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19.5" customHeight="1">
@@ -39298,7 +39312,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="C8" s="75"/>
     </row>
@@ -39307,16 +39321,16 @@
         <v>109</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1">
       <c r="A10" s="74" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="B10" s="74" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="C10" s="75"/>
     </row>
@@ -39325,10 +39339,10 @@
         <v>180</v>
       </c>
       <c r="B11" s="74" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" customHeight="1">
@@ -39336,7 +39350,7 @@
         <v>195</v>
       </c>
       <c r="B12" s="74" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="C12" s="75"/>
     </row>
@@ -39345,10 +39359,10 @@
         <v>223</v>
       </c>
       <c r="B13" s="74" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19.5" customHeight="1">
@@ -39356,10 +39370,10 @@
         <v>233</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" customHeight="1">
@@ -39367,10 +39381,10 @@
         <v>239</v>
       </c>
       <c r="B15" s="74" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="C15" s="75" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="25.5" customHeight="1">
@@ -39378,10 +39392,10 @@
         <v>247</v>
       </c>
       <c r="B16" s="74" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="C16" s="75" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
@@ -39389,10 +39403,10 @@
         <v>378</v>
       </c>
       <c r="B17" s="74" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="C17" s="75" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="47.25" customHeight="1">
@@ -39400,10 +39414,10 @@
         <v>586</v>
       </c>
       <c r="B18" s="74" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="C18" s="75" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="56.25" customHeight="1">
@@ -39411,7 +39425,7 @@
         <v>751</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>2627</v>
+        <v>2629</v>
       </c>
       <c r="C19" s="75"/>
     </row>
@@ -39420,16 +39434,16 @@
         <v>1243</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>2628</v>
+        <v>2630</v>
       </c>
       <c r="C20" s="75"/>
     </row>
     <row r="21" spans="1:3" ht="41.25" customHeight="1">
       <c r="A21" s="74" t="s">
-        <v>2629</v>
+        <v>2631</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="C21" s="75"/>
     </row>
@@ -39438,7 +39452,7 @@
         <v>1318</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>2631</v>
+        <v>2633</v>
       </c>
       <c r="C22" s="75"/>
     </row>
@@ -39447,21 +39461,21 @@
         <v>1326</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>2632</v>
+        <v>2634</v>
       </c>
       <c r="C23" s="75" t="s">
-        <v>2633</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="25.5" customHeight="1">
       <c r="A24" s="74" t="s">
-        <v>2634</v>
+        <v>2636</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>2635</v>
+        <v>2637</v>
       </c>
       <c r="C24" s="75" t="s">
-        <v>2636</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="41.25" customHeight="1">
@@ -39469,10 +39483,10 @@
         <v>1357</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>2637</v>
+        <v>2639</v>
       </c>
       <c r="C25" s="75" t="s">
-        <v>2638</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="25.5" customHeight="1">
@@ -39480,10 +39494,10 @@
         <v>1374</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>2639</v>
+        <v>2641</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>2640</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="56.25" customHeight="1">
@@ -39491,10 +39505,10 @@
         <v>1613</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>2641</v>
+        <v>2643</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>2642</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27.75" customHeight="1">
@@ -39502,10 +39516,10 @@
         <v>62</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>2643</v>
+        <v>2645</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>2644</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36.75" customHeight="1">
@@ -39513,10 +39527,10 @@
         <v>1818</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>2645</v>
+        <v>2647</v>
       </c>
       <c r="C29" s="75" t="s">
-        <v>2646</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="27.75" customHeight="1">
@@ -39524,21 +39538,21 @@
         <v>746</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>2647</v>
+        <v>2649</v>
       </c>
       <c r="C30" s="75" t="s">
-        <v>2648</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="44.25" customHeight="1">
       <c r="A31" s="74" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="52.5" customHeight="1">
@@ -39546,21 +39560,21 @@
         <v>1284</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="33.75" customHeight="1">
       <c r="A33" s="74" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39" customHeight="1">
@@ -39568,21 +39582,21 @@
         <v>120</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="C34" s="105" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="33" customHeight="1">
       <c r="A35" s="104" t="s">
-        <v>2659</v>
+        <v>2661</v>
       </c>
       <c r="B35" s="104" t="s">
-        <v>2660</v>
+        <v>2662</v>
       </c>
       <c r="C35" s="105" t="s">
-        <v>2661</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1">
@@ -39590,7 +39604,7 @@
         <v>1918</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>2662</v>
+        <v>2664</v>
       </c>
       <c r="C36" s="105"/>
     </row>
@@ -39599,7 +39613,7 @@
         <v>97</v>
       </c>
       <c r="B37" s="74" t="s">
-        <v>2663</v>
+        <v>2665</v>
       </c>
       <c r="C37" s="75"/>
     </row>
@@ -39608,7 +39622,7 @@
         <v>127</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>2664</v>
+        <v>2666</v>
       </c>
       <c r="C38" s="105"/>
     </row>
@@ -39617,7 +39631,7 @@
         <v>133</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>2665</v>
+        <v>2667</v>
       </c>
       <c r="C39" s="75"/>
     </row>
@@ -39626,7 +39640,7 @@
         <v>146</v>
       </c>
       <c r="B40" s="74" t="s">
-        <v>2666</v>
+        <v>2668</v>
       </c>
       <c r="C40" s="75"/>
     </row>
@@ -39635,7 +39649,7 @@
         <v>157</v>
       </c>
       <c r="B41" s="74" t="s">
-        <v>2667</v>
+        <v>2669</v>
       </c>
       <c r="C41" s="75"/>
     </row>
@@ -39644,7 +39658,7 @@
         <v>189</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>2668</v>
+        <v>2670</v>
       </c>
       <c r="C42" s="105"/>
     </row>
@@ -39653,34 +39667,34 @@
         <v>332</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>2669</v>
+        <v>2671</v>
       </c>
       <c r="C43" s="75"/>
     </row>
     <row r="44" spans="1:3" ht="21" customHeight="1">
       <c r="A44" s="74" t="s">
-        <v>2670</v>
+        <v>2672</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>2671</v>
+        <v>2673</v>
       </c>
       <c r="C44" s="75"/>
     </row>
     <row r="45" spans="1:3" ht="21.75" customHeight="1">
       <c r="A45" s="74" t="s">
-        <v>2672</v>
+        <v>2674</v>
       </c>
       <c r="B45" s="74" t="s">
-        <v>2673</v>
+        <v>2675</v>
       </c>
       <c r="C45" s="75"/>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
       <c r="A46" s="74" t="s">
-        <v>2674</v>
+        <v>2676</v>
       </c>
       <c r="B46" s="74" t="s">
-        <v>2675</v>
+        <v>2677</v>
       </c>
       <c r="C46" s="75"/>
     </row>
@@ -39689,7 +39703,7 @@
         <v>1380</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>2676</v>
+        <v>2678</v>
       </c>
       <c r="C47" s="105"/>
     </row>
@@ -39698,7 +39712,7 @@
         <v>254</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>2677</v>
+        <v>2679</v>
       </c>
       <c r="C48" s="75"/>
     </row>
@@ -39707,16 +39721,16 @@
         <v>1936</v>
       </c>
       <c r="B49" s="74" t="s">
-        <v>2678</v>
+        <v>2680</v>
       </c>
       <c r="C49" s="75"/>
     </row>
     <row r="50" spans="1:3" ht="24.75" customHeight="1">
       <c r="A50" s="104" t="s">
-        <v>2679</v>
+        <v>2681</v>
       </c>
       <c r="B50" s="104" t="s">
-        <v>2680</v>
+        <v>2682</v>
       </c>
       <c r="C50" s="105"/>
     </row>
@@ -39725,16 +39739,16 @@
         <v>273</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="C51" s="105"/>
     </row>
     <row r="52" spans="1:3" ht="23.25" customHeight="1">
       <c r="A52" s="74" t="s">
-        <v>2682</v>
+        <v>2684</v>
       </c>
       <c r="B52" s="74" t="s">
-        <v>2683</v>
+        <v>2685</v>
       </c>
       <c r="C52" s="75"/>
     </row>
@@ -39743,7 +39757,7 @@
         <v>298</v>
       </c>
       <c r="B53" s="104" t="s">
-        <v>2684</v>
+        <v>2686</v>
       </c>
       <c r="C53" s="105"/>
     </row>
@@ -39752,7 +39766,7 @@
         <v>283</v>
       </c>
       <c r="B54" s="74" t="s">
-        <v>2685</v>
+        <v>2687</v>
       </c>
       <c r="C54" s="75"/>
     </row>
@@ -39761,7 +39775,7 @@
         <v>278</v>
       </c>
       <c r="B55" s="104" t="s">
-        <v>2686</v>
+        <v>2688</v>
       </c>
       <c r="C55" s="105"/>
     </row>
@@ -39770,7 +39784,7 @@
         <v>1436</v>
       </c>
       <c r="B56" s="104" t="s">
-        <v>2687</v>
+        <v>2689</v>
       </c>
       <c r="C56" s="105"/>
     </row>
@@ -39779,7 +39793,7 @@
         <v>485</v>
       </c>
       <c r="B57" s="104" t="s">
-        <v>2688</v>
+        <v>2690</v>
       </c>
       <c r="C57" s="105"/>
     </row>
@@ -39788,7 +39802,7 @@
         <v>1340</v>
       </c>
       <c r="B58" s="74" t="s">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="C58" s="75"/>
     </row>
@@ -39806,7 +39820,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
@@ -39817,10 +39831,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -39828,7 +39842,7 @@
         <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>2690</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -39836,7 +39850,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>2691</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -39844,7 +39858,7 @@
         <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>2692</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -39852,7 +39866,7 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>2693</v>
+        <v>2695</v>
       </c>
     </row>
   </sheetData>
@@ -39879,34 +39893,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>2552</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2556</v>
+        <v>2558</v>
       </c>
       <c r="B2" t="s">
-        <v>2694</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="B3" t="s">
-        <v>2695</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2565</v>
+        <v>2567</v>
       </c>
       <c r="B4" t="s">
-        <v>2696</v>
+        <v>2698</v>
       </c>
     </row>
   </sheetData>
@@ -39932,10 +39946,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2551</v>
+        <v>2553</v>
       </c>
       <c r="B1" t="s">
-        <v>2697</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -39943,7 +39957,7 @@
         <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>2698</v>
+        <v>2700</v>
       </c>
     </row>
   </sheetData>
